--- a/GUI設計.xlsx
+++ b/GUI設計.xlsx
@@ -3389,12 +3389,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3440,12 +3434,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3453,6 +3441,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3759,8 +3759,8 @@
   <dimension ref="A1:O323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <pane ySplit="5" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="2" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3802,117 +3802,117 @@
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="29"/>
+      <c r="N4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="11"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>1349</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>1040</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>164</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>140</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>1146</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>50</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
@@ -4185,1084 +4185,1084 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>12</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>95</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>23</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <v>854</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="21">
         <v>17</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>13</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>95</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>23</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>968</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="21">
         <v>17</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>14</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>95</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>23</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="21">
         <v>1101</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="21">
         <v>17</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>15</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>95</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>23</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <v>1215</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="21">
         <v>17</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>16</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>76</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>19</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>17</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="21">
         <v>55</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>17</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>76</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>19</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="21">
         <v>436</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="21">
         <v>55</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>18</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>76</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>19</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="21">
         <v>675</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="21">
         <v>55</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>19</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>76</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <v>19</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="21">
         <v>798</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="21">
         <v>55</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="23">
+      <c r="B25" s="21">
         <v>20</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="C25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="21">
         <v>76</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="21">
         <v>19</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="21">
         <v>931</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="21">
         <v>55</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="21">
-        <v>21</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="19">
+        <v>21</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>399</v>
       </c>
-      <c r="F26" s="21">
-        <v>21</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="F26" s="19">
+        <v>21</v>
+      </c>
+      <c r="G26" s="19">
         <v>17</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <v>76</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="21">
+      <c r="B27" s="19">
         <v>22</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>192</v>
       </c>
-      <c r="F27" s="21">
-        <v>21</v>
-      </c>
-      <c r="G27" s="21">
+      <c r="F27" s="19">
+        <v>21</v>
+      </c>
+      <c r="G27" s="19">
         <v>436</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <v>76</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="21">
+      <c r="B28" s="19">
         <v>23</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>76</v>
       </c>
-      <c r="F28" s="21">
-        <v>21</v>
-      </c>
-      <c r="G28" s="21">
+      <c r="F28" s="19">
+        <v>21</v>
+      </c>
+      <c r="G28" s="19">
         <v>675</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <v>76</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="21">
+      <c r="B29" s="19">
         <v>24</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>113</v>
       </c>
-      <c r="F29" s="21">
-        <v>21</v>
-      </c>
-      <c r="G29" s="21">
+      <c r="F29" s="19">
+        <v>21</v>
+      </c>
+      <c r="G29" s="19">
         <v>798</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <v>76</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="21">
+      <c r="B30" s="19">
         <v>25</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>113</v>
       </c>
-      <c r="F30" s="21">
-        <v>21</v>
-      </c>
-      <c r="G30" s="21">
+      <c r="F30" s="19">
+        <v>21</v>
+      </c>
+      <c r="G30" s="19">
         <v>931</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="19">
         <v>76</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>26</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="21">
         <v>90</v>
       </c>
-      <c r="F31" s="23">
-        <v>21</v>
-      </c>
-      <c r="G31" s="23">
+      <c r="F31" s="21">
+        <v>21</v>
+      </c>
+      <c r="G31" s="21">
         <v>17</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="21">
         <v>109</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="21">
+      <c r="B32" s="19">
         <v>27</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>215</v>
       </c>
-      <c r="F32" s="21">
-        <v>21</v>
-      </c>
-      <c r="G32" s="21">
+      <c r="F32" s="19">
+        <v>21</v>
+      </c>
+      <c r="G32" s="19">
         <v>115</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="19">
         <v>109</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="21">
+      <c r="B33" s="19">
         <v>28</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>215</v>
       </c>
-      <c r="F33" s="21">
-        <v>21</v>
-      </c>
-      <c r="G33" s="21">
+      <c r="F33" s="19">
+        <v>21</v>
+      </c>
+      <c r="G33" s="19">
         <v>335</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="19">
         <v>109</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="23">
+      <c r="B34" s="21">
         <v>29</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="21">
         <v>90</v>
       </c>
-      <c r="F34" s="23">
-        <v>21</v>
-      </c>
-      <c r="G34" s="23">
+      <c r="F34" s="21">
+        <v>21</v>
+      </c>
+      <c r="G34" s="21">
         <v>17</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="21">
         <v>133</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="23">
+      <c r="B35" s="21">
         <v>30</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="21">
         <v>20</v>
       </c>
-      <c r="F35" s="23">
-        <v>21</v>
-      </c>
-      <c r="G35" s="23">
+      <c r="F35" s="21">
+        <v>21</v>
+      </c>
+      <c r="G35" s="21">
         <v>115</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="21">
         <v>133</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="21">
+      <c r="B36" s="19">
         <v>31</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>190</v>
       </c>
-      <c r="F36" s="21">
-        <v>21</v>
-      </c>
-      <c r="G36" s="21">
+      <c r="F36" s="19">
+        <v>21</v>
+      </c>
+      <c r="G36" s="19">
         <v>140</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <v>133</v>
       </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="23">
+      <c r="B37" s="21">
         <v>32</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="21">
         <v>20</v>
       </c>
-      <c r="F37" s="23">
-        <v>21</v>
-      </c>
-      <c r="G37" s="23">
+      <c r="F37" s="21">
+        <v>21</v>
+      </c>
+      <c r="G37" s="21">
         <v>335</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="21">
         <v>133</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="21">
+      <c r="B38" s="19">
         <v>33</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>190</v>
       </c>
-      <c r="F38" s="21">
-        <v>21</v>
-      </c>
-      <c r="G38" s="21">
+      <c r="F38" s="19">
+        <v>21</v>
+      </c>
+      <c r="G38" s="19">
         <v>360</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="19">
         <v>133</v>
       </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="23">
+      <c r="B39" s="21">
         <v>34</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="23" t="s">
+      <c r="C39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="21">
         <v>90</v>
       </c>
-      <c r="F39" s="23">
-        <v>21</v>
-      </c>
-      <c r="G39" s="23">
+      <c r="F39" s="21">
+        <v>21</v>
+      </c>
+      <c r="G39" s="21">
         <v>17</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="21">
         <v>157</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="20">
+      <c r="B40" s="18">
         <v>35</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>56</v>
       </c>
-      <c r="F40" s="20">
-        <v>21</v>
-      </c>
-      <c r="G40" s="20">
+      <c r="F40" s="18">
+        <v>21</v>
+      </c>
+      <c r="G40" s="18">
         <v>115</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>157</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="23">
+      <c r="B41" s="21">
         <v>36</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="21">
         <v>90</v>
       </c>
-      <c r="F41" s="23">
-        <v>21</v>
-      </c>
-      <c r="G41" s="23">
+      <c r="F41" s="21">
+        <v>21</v>
+      </c>
+      <c r="G41" s="21">
         <v>17</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="21">
         <v>189</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="20">
+      <c r="B42" s="18">
         <v>37</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="18">
         <v>56</v>
       </c>
-      <c r="F42" s="20">
-        <v>21</v>
-      </c>
-      <c r="G42" s="20">
+      <c r="F42" s="18">
+        <v>21</v>
+      </c>
+      <c r="G42" s="18">
         <v>115</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="18">
         <v>189</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="21">
+      <c r="B43" s="19">
         <v>38</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
         <v>35</v>
       </c>
-      <c r="F43" s="21">
-        <v>21</v>
-      </c>
-      <c r="G43" s="21">
+      <c r="F43" s="19">
+        <v>21</v>
+      </c>
+      <c r="G43" s="19">
         <v>175</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="19">
         <v>189</v>
       </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="23">
+      <c r="B44" s="21">
         <v>39</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="21">
         <v>20</v>
       </c>
-      <c r="F44" s="23">
-        <v>21</v>
-      </c>
-      <c r="G44" s="23">
+      <c r="F44" s="21">
+        <v>21</v>
+      </c>
+      <c r="G44" s="21">
         <v>215</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="21">
         <v>189</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="20">
+      <c r="B45" s="18">
         <v>40</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <v>45</v>
       </c>
-      <c r="F45" s="20">
-        <v>21</v>
-      </c>
-      <c r="G45" s="20">
+      <c r="F45" s="18">
+        <v>21</v>
+      </c>
+      <c r="G45" s="18">
         <v>245</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="18">
         <v>189</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="23">
+      <c r="B46" s="21">
         <v>41</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="23" t="s">
+      <c r="C46" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="21">
         <v>20</v>
       </c>
-      <c r="F46" s="23">
-        <v>21</v>
-      </c>
-      <c r="G46" s="23">
+      <c r="F46" s="21">
+        <v>21</v>
+      </c>
+      <c r="G46" s="21">
         <v>295</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="21">
         <v>189</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="20">
+      <c r="B47" s="18">
         <v>42</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <v>45</v>
       </c>
-      <c r="F47" s="20">
-        <v>21</v>
-      </c>
-      <c r="G47" s="20">
+      <c r="F47" s="18">
+        <v>21</v>
+      </c>
+      <c r="G47" s="18">
         <v>325</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="18">
         <v>189</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="23">
+      <c r="B48" s="21">
         <v>43</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="C48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="21">
         <v>20</v>
       </c>
-      <c r="F48" s="23">
-        <v>21</v>
-      </c>
-      <c r="G48" s="23">
+      <c r="F48" s="21">
+        <v>21</v>
+      </c>
+      <c r="G48" s="21">
         <v>375</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="21">
         <v>189</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B49" s="23">
+      <c r="B49" s="21">
         <v>44</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="23" t="s">
+      <c r="C49" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="21">
         <v>70</v>
       </c>
-      <c r="F49" s="23">
-        <v>21</v>
-      </c>
-      <c r="G49" s="23">
+      <c r="F49" s="21">
+        <v>21</v>
+      </c>
+      <c r="G49" s="21">
         <v>409</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="21">
         <v>189</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B50" s="23">
+      <c r="B50" s="21">
         <v>45</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="C50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="21">
         <v>20</v>
       </c>
-      <c r="F50" s="23">
-        <v>21</v>
-      </c>
-      <c r="G50" s="23">
+      <c r="F50" s="21">
+        <v>21</v>
+      </c>
+      <c r="G50" s="21">
         <v>484</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="21">
         <v>189</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B51" s="21">
+      <c r="B51" s="19">
         <v>46</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="19">
         <v>35</v>
       </c>
-      <c r="F51" s="21">
-        <v>21</v>
-      </c>
-      <c r="G51" s="21">
+      <c r="F51" s="19">
+        <v>21</v>
+      </c>
+      <c r="G51" s="19">
         <v>509</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="19">
         <v>189</v>
       </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B52" s="23">
+      <c r="B52" s="21">
         <v>47</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="C52" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="21">
         <v>20</v>
       </c>
-      <c r="F52" s="23">
-        <v>21</v>
-      </c>
-      <c r="G52" s="23">
+      <c r="F52" s="21">
+        <v>21</v>
+      </c>
+      <c r="G52" s="21">
         <v>549</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="21">
         <v>189</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
@@ -5337,664 +5337,664 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B55" s="23">
+      <c r="B55" s="21">
         <v>50</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="23" t="s">
+      <c r="C55" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="21">
         <v>90</v>
       </c>
-      <c r="F55" s="23">
-        <v>21</v>
-      </c>
-      <c r="G55" s="23">
+      <c r="F55" s="21">
+        <v>21</v>
+      </c>
+      <c r="G55" s="21">
         <v>17</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="21">
         <v>285</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B56" s="21">
+      <c r="B56" s="19">
         <v>51</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="19">
         <v>50</v>
       </c>
-      <c r="F56" s="21">
-        <v>21</v>
-      </c>
-      <c r="G56" s="21">
+      <c r="F56" s="19">
+        <v>21</v>
+      </c>
+      <c r="G56" s="19">
         <v>115</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="19">
         <v>285</v>
       </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B57" s="23">
+      <c r="B57" s="21">
         <v>52</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="23" t="s">
+      <c r="C57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="21">
         <v>20</v>
       </c>
-      <c r="F57" s="23">
-        <v>21</v>
-      </c>
-      <c r="G57" s="23">
+      <c r="F57" s="21">
+        <v>21</v>
+      </c>
+      <c r="G57" s="21">
         <v>170</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="21">
         <v>285</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B58" s="21">
+      <c r="B58" s="19">
         <v>53</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="19">
         <v>50</v>
       </c>
-      <c r="F58" s="21">
-        <v>21</v>
-      </c>
-      <c r="G58" s="21">
+      <c r="F58" s="19">
+        <v>21</v>
+      </c>
+      <c r="G58" s="19">
         <v>196</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="19">
         <v>285</v>
       </c>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B59" s="23">
+      <c r="B59" s="21">
         <v>54</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="23" t="s">
+      <c r="C59" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="21">
         <v>20</v>
       </c>
-      <c r="F59" s="23">
-        <v>21</v>
-      </c>
-      <c r="G59" s="23">
+      <c r="F59" s="21">
+        <v>21</v>
+      </c>
+      <c r="G59" s="21">
         <v>251</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="21">
         <v>285</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B60" s="21">
+      <c r="B60" s="19">
         <v>55</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="19">
         <v>50</v>
       </c>
-      <c r="F60" s="21">
-        <v>21</v>
-      </c>
-      <c r="G60" s="21">
+      <c r="F60" s="19">
+        <v>21</v>
+      </c>
+      <c r="G60" s="19">
         <v>276</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="19">
         <v>285</v>
       </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B61" s="23">
+      <c r="B61" s="21">
         <v>56</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="23" t="s">
+      <c r="C61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="21">
         <v>90</v>
       </c>
-      <c r="F61" s="23">
-        <v>21</v>
-      </c>
-      <c r="G61" s="23">
+      <c r="F61" s="21">
+        <v>21</v>
+      </c>
+      <c r="G61" s="21">
         <v>17</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="21">
         <v>310</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B62" s="21">
+      <c r="B62" s="19">
         <v>57</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="19">
         <v>419</v>
       </c>
-      <c r="F62" s="21">
-        <v>21</v>
-      </c>
-      <c r="G62" s="21">
+      <c r="F62" s="19">
+        <v>21</v>
+      </c>
+      <c r="G62" s="19">
         <v>115</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="19">
         <v>309</v>
       </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B63" s="23">
+      <c r="B63" s="21">
         <v>58</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="23" t="s">
+      <c r="C63" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="21">
         <v>90</v>
       </c>
-      <c r="F63" s="23">
-        <v>21</v>
-      </c>
-      <c r="G63" s="23">
+      <c r="F63" s="21">
+        <v>21</v>
+      </c>
+      <c r="G63" s="21">
         <v>17</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="21">
         <v>335</v>
       </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B64" s="21">
+      <c r="B64" s="19">
         <v>59</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="19">
         <v>35</v>
       </c>
-      <c r="F64" s="21">
-        <v>21</v>
-      </c>
-      <c r="G64" s="21">
+      <c r="F64" s="19">
+        <v>21</v>
+      </c>
+      <c r="G64" s="19">
         <v>115</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="19">
         <v>335</v>
       </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B65" s="23">
+      <c r="B65" s="21">
         <v>60</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="23" t="s">
+      <c r="C65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="21">
         <v>20</v>
       </c>
-      <c r="F65" s="23">
-        <v>21</v>
-      </c>
-      <c r="G65" s="23">
+      <c r="F65" s="21">
+        <v>21</v>
+      </c>
+      <c r="G65" s="21">
         <v>155</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="21">
         <v>335</v>
       </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B66" s="21">
+      <c r="B66" s="19">
         <v>61</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="19">
         <v>40</v>
       </c>
-      <c r="F66" s="21">
-        <v>21</v>
-      </c>
-      <c r="G66" s="21">
+      <c r="F66" s="19">
+        <v>21</v>
+      </c>
+      <c r="G66" s="19">
         <v>180</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="19">
         <v>335</v>
       </c>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B67" s="23">
+      <c r="B67" s="21">
         <v>62</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="23" t="s">
+      <c r="C67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="21">
         <v>90</v>
       </c>
-      <c r="F67" s="23">
-        <v>21</v>
-      </c>
-      <c r="G67" s="23">
+      <c r="F67" s="21">
+        <v>21</v>
+      </c>
+      <c r="G67" s="21">
         <v>17</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="21">
         <v>359</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B68" s="20">
+      <c r="B68" s="18">
         <v>63</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="18">
         <v>112</v>
       </c>
-      <c r="F68" s="20">
-        <v>21</v>
-      </c>
-      <c r="G68" s="20">
+      <c r="F68" s="18">
+        <v>21</v>
+      </c>
+      <c r="G68" s="18">
         <v>115</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="18">
         <v>359</v>
       </c>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B69" s="23">
+      <c r="B69" s="21">
         <v>64</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="23" t="s">
+      <c r="C69" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="21">
         <v>90</v>
       </c>
-      <c r="F69" s="23">
-        <v>21</v>
-      </c>
-      <c r="G69" s="23">
+      <c r="F69" s="21">
+        <v>21</v>
+      </c>
+      <c r="G69" s="21">
         <v>17</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="21">
         <v>383</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B70" s="21">
+      <c r="B70" s="19">
         <v>65</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="19">
         <v>342</v>
       </c>
-      <c r="F70" s="21">
-        <v>21</v>
-      </c>
-      <c r="G70" s="21">
+      <c r="F70" s="19">
+        <v>21</v>
+      </c>
+      <c r="G70" s="19">
         <v>115</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="19">
         <v>383</v>
       </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B71" s="23">
+      <c r="B71" s="21">
         <v>66</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="23" t="s">
+      <c r="C71" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="21">
         <v>90</v>
       </c>
-      <c r="F71" s="23">
-        <v>21</v>
-      </c>
-      <c r="G71" s="23">
+      <c r="F71" s="21">
+        <v>21</v>
+      </c>
+      <c r="G71" s="21">
         <v>17</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="21">
         <v>407</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B72" s="21">
+      <c r="B72" s="19">
         <v>67</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="19">
         <v>342</v>
       </c>
-      <c r="F72" s="21">
-        <v>21</v>
-      </c>
-      <c r="G72" s="21">
+      <c r="F72" s="19">
+        <v>21</v>
+      </c>
+      <c r="G72" s="19">
         <v>115</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="19">
         <v>407</v>
       </c>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B73" s="23">
+      <c r="B73" s="21">
         <v>68</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="23" t="s">
+      <c r="C73" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="21">
         <v>90</v>
       </c>
-      <c r="F73" s="23">
-        <v>21</v>
-      </c>
-      <c r="G73" s="23">
+      <c r="F73" s="21">
+        <v>21</v>
+      </c>
+      <c r="G73" s="21">
         <v>17</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="21">
         <v>431</v>
       </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B74" s="21">
+      <c r="B74" s="19">
         <v>69</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="19">
         <v>420</v>
       </c>
-      <c r="F74" s="21">
-        <v>21</v>
-      </c>
-      <c r="G74" s="21">
+      <c r="F74" s="19">
+        <v>21</v>
+      </c>
+      <c r="G74" s="19">
         <v>115</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="19">
         <v>431</v>
       </c>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B75" s="23">
+      <c r="B75" s="21">
         <v>70</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="23" t="s">
+      <c r="C75" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="21">
         <v>90</v>
       </c>
-      <c r="F75" s="23">
-        <v>21</v>
-      </c>
-      <c r="G75" s="23">
+      <c r="F75" s="21">
+        <v>21</v>
+      </c>
+      <c r="G75" s="21">
         <v>17</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="21">
         <v>455</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B76" s="21">
+      <c r="B76" s="19">
         <v>71</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="19">
         <v>420</v>
       </c>
-      <c r="F76" s="21">
-        <v>21</v>
-      </c>
-      <c r="G76" s="21">
+      <c r="F76" s="19">
+        <v>21</v>
+      </c>
+      <c r="G76" s="19">
         <v>115</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="19">
         <v>455</v>
       </c>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B77" s="5">
@@ -6369,124 +6369,124 @@
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B89" s="23">
+      <c r="B89" s="21">
         <v>84</v>
       </c>
-      <c r="C89" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="23" t="s">
+      <c r="C89" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="21">
         <v>61</v>
       </c>
-      <c r="F89" s="23">
-        <v>21</v>
-      </c>
-      <c r="G89" s="23">
+      <c r="F89" s="21">
+        <v>21</v>
+      </c>
+      <c r="G89" s="21">
         <v>17</v>
       </c>
-      <c r="H89" s="23">
+      <c r="H89" s="21">
         <v>603</v>
       </c>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B90" s="20">
+      <c r="B90" s="18">
         <v>85</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="18">
         <v>47</v>
       </c>
-      <c r="F90" s="20">
-        <v>21</v>
-      </c>
-      <c r="G90" s="20">
+      <c r="F90" s="18">
+        <v>21</v>
+      </c>
+      <c r="G90" s="18">
         <v>83</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="18">
         <v>603</v>
       </c>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B91" s="23">
+      <c r="B91" s="21">
         <v>86</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="23" t="s">
+      <c r="C91" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="21">
         <v>84</v>
       </c>
-      <c r="F91" s="23">
-        <v>21</v>
-      </c>
-      <c r="G91" s="23">
+      <c r="F91" s="21">
+        <v>21</v>
+      </c>
+      <c r="G91" s="21">
         <v>134</v>
       </c>
-      <c r="H91" s="23">
+      <c r="H91" s="21">
         <v>603</v>
       </c>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B92" s="20">
+      <c r="B92" s="18">
         <v>87</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D92" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E92" s="20">
+      <c r="E92" s="18">
         <v>47</v>
       </c>
-      <c r="F92" s="20">
-        <v>21</v>
-      </c>
-      <c r="G92" s="20">
+      <c r="F92" s="18">
+        <v>21</v>
+      </c>
+      <c r="G92" s="18">
         <v>224</v>
       </c>
-      <c r="H92" s="20">
+      <c r="H92" s="18">
         <v>603</v>
       </c>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B93" s="6">
@@ -7221,64 +7221,64 @@
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B117" s="23">
+      <c r="B117" s="21">
         <v>112</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D117" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E117" s="23">
+      <c r="E117" s="21">
         <v>75</v>
       </c>
-      <c r="F117" s="23">
-        <v>21</v>
-      </c>
-      <c r="G117" s="23">
-        <v>587</v>
-      </c>
-      <c r="H117" s="23">
-        <v>204</v>
-      </c>
-      <c r="I117" s="23"/>
-      <c r="J117" s="23"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="23"/>
-      <c r="M117" s="23"/>
-      <c r="N117" s="23"/>
-      <c r="O117" s="23"/>
+      <c r="F117" s="21">
+        <v>21</v>
+      </c>
+      <c r="G117" s="21">
+        <v>574</v>
+      </c>
+      <c r="H117" s="21">
+        <v>189</v>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B118" s="20">
+      <c r="B118" s="18">
         <v>113</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D118" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E118" s="20">
+      <c r="E118" s="18">
         <v>47</v>
       </c>
-      <c r="F118" s="20">
-        <v>21</v>
-      </c>
-      <c r="G118" s="20">
-        <v>665</v>
-      </c>
-      <c r="H118" s="20">
-        <v>204</v>
-      </c>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="20"/>
-      <c r="O118" s="20"/>
+      <c r="F118" s="18">
+        <v>21</v>
+      </c>
+      <c r="G118" s="18">
+        <v>654</v>
+      </c>
+      <c r="H118" s="18">
+        <v>189</v>
+      </c>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B119" s="7">
@@ -13353,64 +13353,64 @@
       </c>
     </row>
     <row r="321" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B321" s="23">
+      <c r="B321" s="21">
         <v>316</v>
       </c>
-      <c r="C321" s="23" t="s">
+      <c r="C321" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D321" s="23" t="s">
+      <c r="D321" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E321" s="23">
+      <c r="E321" s="21">
         <v>40</v>
       </c>
-      <c r="F321" s="23">
-        <v>21</v>
-      </c>
-      <c r="G321" s="23">
+      <c r="F321" s="21">
+        <v>21</v>
+      </c>
+      <c r="G321" s="21">
         <v>17</v>
       </c>
-      <c r="H321" s="23">
+      <c r="H321" s="21">
         <v>755</v>
       </c>
-      <c r="I321" s="23"/>
-      <c r="J321" s="23"/>
-      <c r="K321" s="23"/>
-      <c r="L321" s="23"/>
-      <c r="M321" s="23"/>
-      <c r="N321" s="23"/>
-      <c r="O321" s="23"/>
+      <c r="I321" s="21"/>
+      <c r="J321" s="21"/>
+      <c r="K321" s="21"/>
+      <c r="L321" s="21"/>
+      <c r="M321" s="21"/>
+      <c r="N321" s="21"/>
+      <c r="O321" s="21"/>
     </row>
     <row r="322" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B322" s="24">
+      <c r="B322" s="22">
         <v>317</v>
       </c>
-      <c r="C322" s="24" t="s">
+      <c r="C322" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D322" s="24" t="s">
+      <c r="D322" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="E322" s="24">
+      <c r="E322" s="22">
         <v>1295</v>
       </c>
-      <c r="F322" s="24">
+      <c r="F322" s="22">
         <v>95</v>
       </c>
-      <c r="G322" s="24">
+      <c r="G322" s="22">
         <v>17</v>
       </c>
-      <c r="H322" s="24">
+      <c r="H322" s="22">
         <v>777</v>
       </c>
-      <c r="I322" s="24"/>
-      <c r="J322" s="24"/>
-      <c r="K322" s="24"/>
-      <c r="L322" s="24"/>
-      <c r="M322" s="24"/>
-      <c r="N322" s="24"/>
-      <c r="O322" s="24"/>
+      <c r="I322" s="22"/>
+      <c r="J322" s="22"/>
+      <c r="K322" s="22"/>
+      <c r="L322" s="22"/>
+      <c r="M322" s="22"/>
+      <c r="N322" s="22"/>
+      <c r="O322" s="22"/>
     </row>
     <row r="323" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B323" s="8">
@@ -13473,8 +13473,8 @@
   <dimension ref="A1:O329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="5" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13504,129 +13504,129 @@
     </row>
     <row r="2" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="25" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="27" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="28"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="14" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>1349</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>1040</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>164</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>140</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>1146</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>50</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
@@ -13899,1264 +13899,1264 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>12</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>95</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>23</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <v>854</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="21">
         <v>17</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>13</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>95</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>23</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>968</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="21">
         <v>17</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>14</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>95</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>23</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="21">
         <v>1101</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="21">
         <v>17</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>15</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>95</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>23</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <v>1215</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="21">
         <v>17</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>16</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>76</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>19</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>17</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="21">
         <v>55</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>17</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>76</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>19</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="21">
         <v>436</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="21">
         <v>55</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>18</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>76</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>19</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="21">
         <v>675</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="21">
         <v>55</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>19</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>76</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <v>19</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="21">
         <v>798</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="21">
         <v>55</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="23">
+      <c r="B25" s="21">
         <v>20</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="C25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="21">
         <v>76</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="21">
         <v>19</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="21">
         <v>931</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="21">
         <v>55</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="21">
-        <v>21</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="19">
+        <v>21</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>399</v>
       </c>
-      <c r="F26" s="21">
-        <v>21</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="F26" s="19">
+        <v>21</v>
+      </c>
+      <c r="G26" s="19">
         <v>17</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <v>76</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="21">
+      <c r="B27" s="19">
         <v>22</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>192</v>
       </c>
-      <c r="F27" s="21">
-        <v>21</v>
-      </c>
-      <c r="G27" s="21">
+      <c r="F27" s="19">
+        <v>21</v>
+      </c>
+      <c r="G27" s="19">
         <v>436</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <v>76</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="21">
+      <c r="B28" s="19">
         <v>23</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>76</v>
       </c>
-      <c r="F28" s="21">
-        <v>21</v>
-      </c>
-      <c r="G28" s="21">
+      <c r="F28" s="19">
+        <v>21</v>
+      </c>
+      <c r="G28" s="19">
         <v>675</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <v>76</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="21">
+      <c r="B29" s="19">
         <v>24</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>113</v>
       </c>
-      <c r="F29" s="21">
-        <v>21</v>
-      </c>
-      <c r="G29" s="21">
+      <c r="F29" s="19">
+        <v>21</v>
+      </c>
+      <c r="G29" s="19">
         <v>798</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <v>76</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="21">
+      <c r="B30" s="19">
         <v>25</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>113</v>
       </c>
-      <c r="F30" s="21">
-        <v>21</v>
-      </c>
-      <c r="G30" s="21">
+      <c r="F30" s="19">
+        <v>21</v>
+      </c>
+      <c r="G30" s="19">
         <v>931</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="19">
         <v>76</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>26</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="21">
         <v>90</v>
       </c>
-      <c r="F31" s="23">
-        <v>21</v>
-      </c>
-      <c r="G31" s="23">
+      <c r="F31" s="21">
+        <v>21</v>
+      </c>
+      <c r="G31" s="21">
         <v>17</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="21">
         <v>109</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="21">
+      <c r="B32" s="19">
         <v>27</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>215</v>
       </c>
-      <c r="F32" s="21">
-        <v>21</v>
-      </c>
-      <c r="G32" s="21">
+      <c r="F32" s="19">
+        <v>21</v>
+      </c>
+      <c r="G32" s="19">
         <v>115</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="19">
         <v>109</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="21">
+      <c r="B33" s="19">
         <v>28</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>215</v>
       </c>
-      <c r="F33" s="21">
-        <v>21</v>
-      </c>
-      <c r="G33" s="21">
+      <c r="F33" s="19">
+        <v>21</v>
+      </c>
+      <c r="G33" s="19">
         <v>335</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="19">
         <v>109</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="23">
+      <c r="B34" s="21">
         <v>29</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="21">
         <v>75</v>
       </c>
-      <c r="F34" s="23">
-        <v>21</v>
-      </c>
-      <c r="G34" s="23">
+      <c r="F34" s="21">
+        <v>21</v>
+      </c>
+      <c r="G34" s="21">
         <v>600</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="21">
         <v>109</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="23">
+      <c r="B35" s="21">
         <v>30</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="21">
         <v>90</v>
       </c>
-      <c r="F35" s="23">
-        <v>21</v>
-      </c>
-      <c r="G35" s="23">
+      <c r="F35" s="21">
+        <v>21</v>
+      </c>
+      <c r="G35" s="21">
         <v>713</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="21">
         <v>109</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="21">
+      <c r="B36" s="19">
         <v>31</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>255</v>
       </c>
-      <c r="F36" s="21">
-        <v>21</v>
-      </c>
-      <c r="G36" s="21">
+      <c r="F36" s="19">
+        <v>21</v>
+      </c>
+      <c r="G36" s="19">
         <v>808</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <v>109</v>
       </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="23">
+      <c r="B37" s="21">
         <v>32</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="21">
         <v>90</v>
       </c>
-      <c r="F37" s="23">
-        <v>21</v>
-      </c>
-      <c r="G37" s="23">
+      <c r="F37" s="21">
+        <v>21</v>
+      </c>
+      <c r="G37" s="21">
         <v>17</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="21">
         <v>133</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="23">
+      <c r="B38" s="21">
         <v>33</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="21">
         <v>20</v>
       </c>
-      <c r="F38" s="23">
-        <v>21</v>
-      </c>
-      <c r="G38" s="23">
+      <c r="F38" s="21">
+        <v>21</v>
+      </c>
+      <c r="G38" s="21">
         <v>115</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="21">
         <v>133</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="21">
+      <c r="B39" s="19">
         <v>34</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <v>190</v>
       </c>
-      <c r="F39" s="21">
-        <v>21</v>
-      </c>
-      <c r="G39" s="21">
+      <c r="F39" s="19">
+        <v>21</v>
+      </c>
+      <c r="G39" s="19">
         <v>140</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="19">
         <v>133</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="23">
+      <c r="B40" s="21">
         <v>35</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="21">
         <v>20</v>
       </c>
-      <c r="F40" s="23">
-        <v>21</v>
-      </c>
-      <c r="G40" s="23">
+      <c r="F40" s="21">
+        <v>21</v>
+      </c>
+      <c r="G40" s="21">
         <v>335</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="21">
         <v>133</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="21">
+      <c r="B41" s="19">
         <v>36</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <v>190</v>
       </c>
-      <c r="F41" s="21">
-        <v>21</v>
-      </c>
-      <c r="G41" s="21">
+      <c r="F41" s="19">
+        <v>21</v>
+      </c>
+      <c r="G41" s="19">
         <v>360</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="19">
         <v>133</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="21">
+      <c r="B42" s="19">
         <v>37</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <v>75</v>
       </c>
-      <c r="F42" s="21">
-        <v>21</v>
-      </c>
-      <c r="G42" s="21">
+      <c r="F42" s="19">
+        <v>21</v>
+      </c>
+      <c r="G42" s="19">
         <v>600</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="19">
         <v>133</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="23">
+      <c r="B43" s="21">
         <v>38</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="21">
         <v>90</v>
       </c>
-      <c r="F43" s="23">
-        <v>21</v>
-      </c>
-      <c r="G43" s="23">
+      <c r="F43" s="21">
+        <v>21</v>
+      </c>
+      <c r="G43" s="21">
         <v>713</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="21">
         <v>109</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="21">
+      <c r="B44" s="19">
         <v>39</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <v>255</v>
       </c>
-      <c r="F44" s="21">
-        <v>21</v>
-      </c>
-      <c r="G44" s="21">
+      <c r="F44" s="19">
+        <v>21</v>
+      </c>
+      <c r="G44" s="19">
         <v>808</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="19">
         <v>133</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="23">
+      <c r="B45" s="21">
         <v>40</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="21">
         <v>90</v>
       </c>
-      <c r="F45" s="23">
-        <v>21</v>
-      </c>
-      <c r="G45" s="23">
+      <c r="F45" s="21">
+        <v>21</v>
+      </c>
+      <c r="G45" s="21">
         <v>17</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="21">
         <v>157</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="20">
+      <c r="B46" s="18">
         <v>41</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>56</v>
       </c>
-      <c r="F46" s="20">
-        <v>21</v>
-      </c>
-      <c r="G46" s="20">
+      <c r="F46" s="18">
+        <v>21</v>
+      </c>
+      <c r="G46" s="18">
         <v>115</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>157</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="23">
+      <c r="B47" s="21">
         <v>42</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="23" t="s">
+      <c r="C47" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="21">
         <v>90</v>
       </c>
-      <c r="F47" s="23">
-        <v>21</v>
-      </c>
-      <c r="G47" s="23">
+      <c r="F47" s="21">
+        <v>21</v>
+      </c>
+      <c r="G47" s="21">
         <v>17</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="21">
         <v>189</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="20">
+      <c r="B48" s="18">
         <v>43</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>56</v>
       </c>
-      <c r="F48" s="20">
-        <v>21</v>
-      </c>
-      <c r="G48" s="20">
+      <c r="F48" s="18">
+        <v>21</v>
+      </c>
+      <c r="G48" s="18">
         <v>115</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="18">
         <v>189</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B49" s="21">
+      <c r="B49" s="19">
         <v>44</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="19">
         <v>35</v>
       </c>
-      <c r="F49" s="21">
-        <v>21</v>
-      </c>
-      <c r="G49" s="21">
+      <c r="F49" s="19">
+        <v>21</v>
+      </c>
+      <c r="G49" s="19">
         <v>175</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="19">
         <v>189</v>
       </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B50" s="23">
+      <c r="B50" s="21">
         <v>45</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="C50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="21">
         <v>20</v>
       </c>
-      <c r="F50" s="23">
-        <v>21</v>
-      </c>
-      <c r="G50" s="23">
+      <c r="F50" s="21">
+        <v>21</v>
+      </c>
+      <c r="G50" s="21">
         <v>215</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="21">
         <v>189</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B51" s="20">
+      <c r="B51" s="18">
         <v>46</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="18">
         <v>45</v>
       </c>
-      <c r="F51" s="20">
-        <v>21</v>
-      </c>
-      <c r="G51" s="20">
+      <c r="F51" s="18">
+        <v>21</v>
+      </c>
+      <c r="G51" s="18">
         <v>245</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="18">
         <v>189</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B52" s="23">
+      <c r="B52" s="21">
         <v>47</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="C52" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="21">
         <v>20</v>
       </c>
-      <c r="F52" s="23">
-        <v>21</v>
-      </c>
-      <c r="G52" s="23">
+      <c r="F52" s="21">
+        <v>21</v>
+      </c>
+      <c r="G52" s="21">
         <v>295</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="21">
         <v>189</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B53" s="20">
+      <c r="B53" s="18">
         <v>48</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>45</v>
       </c>
-      <c r="F53" s="20">
-        <v>21</v>
-      </c>
-      <c r="G53" s="20">
+      <c r="F53" s="18">
+        <v>21</v>
+      </c>
+      <c r="G53" s="18">
         <v>325</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="18">
         <v>189</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B54" s="23">
+      <c r="B54" s="21">
         <v>49</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="23" t="s">
+      <c r="C54" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="21">
         <v>20</v>
       </c>
-      <c r="F54" s="23">
-        <v>21</v>
-      </c>
-      <c r="G54" s="23">
+      <c r="F54" s="21">
+        <v>21</v>
+      </c>
+      <c r="G54" s="21">
         <v>375</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="21">
         <v>189</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B55" s="23">
+      <c r="B55" s="21">
         <v>50</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="23" t="s">
+      <c r="C55" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="21">
         <v>70</v>
       </c>
-      <c r="F55" s="23">
-        <v>21</v>
-      </c>
-      <c r="G55" s="23">
+      <c r="F55" s="21">
+        <v>21</v>
+      </c>
+      <c r="G55" s="21">
         <v>409</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="21">
         <v>189</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B56" s="23">
+      <c r="B56" s="21">
         <v>51</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="23" t="s">
+      <c r="C56" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="21">
         <v>20</v>
       </c>
-      <c r="F56" s="23">
-        <v>21</v>
-      </c>
-      <c r="G56" s="23">
+      <c r="F56" s="21">
+        <v>21</v>
+      </c>
+      <c r="G56" s="21">
         <v>484</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="21">
         <v>189</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B57" s="21">
+      <c r="B57" s="19">
         <v>52</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="19">
         <v>35</v>
       </c>
-      <c r="F57" s="21">
-        <v>21</v>
-      </c>
-      <c r="G57" s="21">
+      <c r="F57" s="19">
+        <v>21</v>
+      </c>
+      <c r="G57" s="19">
         <v>509</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="19">
         <v>189</v>
       </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B58" s="23">
+      <c r="B58" s="21">
         <v>53</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="23" t="s">
+      <c r="C58" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="21">
         <v>20</v>
       </c>
-      <c r="F58" s="23">
-        <v>21</v>
-      </c>
-      <c r="G58" s="23">
+      <c r="F58" s="21">
+        <v>21</v>
+      </c>
+      <c r="G58" s="21">
         <v>549</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="21">
         <v>189</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
@@ -15231,664 +15231,664 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B61" s="23">
+      <c r="B61" s="21">
         <v>56</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="23" t="s">
+      <c r="C61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="21">
         <v>90</v>
       </c>
-      <c r="F61" s="23">
-        <v>21</v>
-      </c>
-      <c r="G61" s="23">
+      <c r="F61" s="21">
+        <v>21</v>
+      </c>
+      <c r="G61" s="21">
         <v>17</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="21">
         <v>285</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B62" s="21">
+      <c r="B62" s="19">
         <v>57</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="19">
         <v>50</v>
       </c>
-      <c r="F62" s="21">
-        <v>21</v>
-      </c>
-      <c r="G62" s="21">
+      <c r="F62" s="19">
+        <v>21</v>
+      </c>
+      <c r="G62" s="19">
         <v>115</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="19">
         <v>285</v>
       </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B63" s="23">
+      <c r="B63" s="21">
         <v>58</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="23" t="s">
+      <c r="C63" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="21">
         <v>20</v>
       </c>
-      <c r="F63" s="23">
-        <v>21</v>
-      </c>
-      <c r="G63" s="23">
+      <c r="F63" s="21">
+        <v>21</v>
+      </c>
+      <c r="G63" s="21">
         <v>170</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="21">
         <v>285</v>
       </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B64" s="21">
+      <c r="B64" s="19">
         <v>59</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="19">
         <v>50</v>
       </c>
-      <c r="F64" s="21">
-        <v>21</v>
-      </c>
-      <c r="G64" s="21">
+      <c r="F64" s="19">
+        <v>21</v>
+      </c>
+      <c r="G64" s="19">
         <v>196</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="19">
         <v>285</v>
       </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B65" s="23">
+      <c r="B65" s="21">
         <v>60</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="23" t="s">
+      <c r="C65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="21">
         <v>20</v>
       </c>
-      <c r="F65" s="23">
-        <v>21</v>
-      </c>
-      <c r="G65" s="23">
+      <c r="F65" s="21">
+        <v>21</v>
+      </c>
+      <c r="G65" s="21">
         <v>251</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="21">
         <v>285</v>
       </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B66" s="21">
+      <c r="B66" s="19">
         <v>61</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="19">
         <v>50</v>
       </c>
-      <c r="F66" s="21">
-        <v>21</v>
-      </c>
-      <c r="G66" s="21">
+      <c r="F66" s="19">
+        <v>21</v>
+      </c>
+      <c r="G66" s="19">
         <v>276</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="19">
         <v>285</v>
       </c>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B67" s="23">
+      <c r="B67" s="21">
         <v>62</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="23" t="s">
+      <c r="C67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="21">
         <v>90</v>
       </c>
-      <c r="F67" s="23">
-        <v>21</v>
-      </c>
-      <c r="G67" s="23">
+      <c r="F67" s="21">
+        <v>21</v>
+      </c>
+      <c r="G67" s="21">
         <v>17</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="21">
         <v>310</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B68" s="21">
+      <c r="B68" s="19">
         <v>63</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="19">
         <v>419</v>
       </c>
-      <c r="F68" s="21">
-        <v>21</v>
-      </c>
-      <c r="G68" s="21">
+      <c r="F68" s="19">
+        <v>21</v>
+      </c>
+      <c r="G68" s="19">
         <v>115</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="19">
         <v>309</v>
       </c>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B69" s="23">
+      <c r="B69" s="21">
         <v>64</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="23" t="s">
+      <c r="C69" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="21">
         <v>90</v>
       </c>
-      <c r="F69" s="23">
-        <v>21</v>
-      </c>
-      <c r="G69" s="23">
+      <c r="F69" s="21">
+        <v>21</v>
+      </c>
+      <c r="G69" s="21">
         <v>17</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="21">
         <v>335</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B70" s="21">
+      <c r="B70" s="19">
         <v>65</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="19">
         <v>35</v>
       </c>
-      <c r="F70" s="21">
-        <v>21</v>
-      </c>
-      <c r="G70" s="21">
+      <c r="F70" s="19">
+        <v>21</v>
+      </c>
+      <c r="G70" s="19">
         <v>115</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="19">
         <v>335</v>
       </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B71" s="23">
+      <c r="B71" s="21">
         <v>66</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="23" t="s">
+      <c r="C71" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="21">
         <v>20</v>
       </c>
-      <c r="F71" s="23">
-        <v>21</v>
-      </c>
-      <c r="G71" s="23">
+      <c r="F71" s="21">
+        <v>21</v>
+      </c>
+      <c r="G71" s="21">
         <v>155</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="21">
         <v>335</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B72" s="21">
+      <c r="B72" s="19">
         <v>67</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="19">
         <v>40</v>
       </c>
-      <c r="F72" s="21">
-        <v>21</v>
-      </c>
-      <c r="G72" s="21">
+      <c r="F72" s="19">
+        <v>21</v>
+      </c>
+      <c r="G72" s="19">
         <v>180</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="19">
         <v>335</v>
       </c>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B73" s="23">
+      <c r="B73" s="21">
         <v>68</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="23" t="s">
+      <c r="C73" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="21">
         <v>90</v>
       </c>
-      <c r="F73" s="23">
-        <v>21</v>
-      </c>
-      <c r="G73" s="23">
+      <c r="F73" s="21">
+        <v>21</v>
+      </c>
+      <c r="G73" s="21">
         <v>17</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="21">
         <v>359</v>
       </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B74" s="20">
+      <c r="B74" s="18">
         <v>69</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="18">
         <v>112</v>
       </c>
-      <c r="F74" s="20">
-        <v>21</v>
-      </c>
-      <c r="G74" s="20">
+      <c r="F74" s="18">
+        <v>21</v>
+      </c>
+      <c r="G74" s="18">
         <v>115</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="18">
         <v>359</v>
       </c>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B75" s="23">
+      <c r="B75" s="21">
         <v>70</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="23" t="s">
+      <c r="C75" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="21">
         <v>90</v>
       </c>
-      <c r="F75" s="23">
-        <v>21</v>
-      </c>
-      <c r="G75" s="23">
+      <c r="F75" s="21">
+        <v>21</v>
+      </c>
+      <c r="G75" s="21">
         <v>17</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="21">
         <v>383</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B76" s="21">
+      <c r="B76" s="19">
         <v>71</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="19">
         <v>342</v>
       </c>
-      <c r="F76" s="21">
-        <v>21</v>
-      </c>
-      <c r="G76" s="21">
+      <c r="F76" s="19">
+        <v>21</v>
+      </c>
+      <c r="G76" s="19">
         <v>115</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="19">
         <v>383</v>
       </c>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B77" s="23">
+      <c r="B77" s="21">
         <v>72</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="23" t="s">
+      <c r="C77" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="21">
         <v>90</v>
       </c>
-      <c r="F77" s="23">
-        <v>21</v>
-      </c>
-      <c r="G77" s="23">
+      <c r="F77" s="21">
+        <v>21</v>
+      </c>
+      <c r="G77" s="21">
         <v>17</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="21">
         <v>407</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B78" s="21">
+      <c r="B78" s="19">
         <v>73</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="19">
         <v>342</v>
       </c>
-      <c r="F78" s="21">
-        <v>21</v>
-      </c>
-      <c r="G78" s="21">
+      <c r="F78" s="19">
+        <v>21</v>
+      </c>
+      <c r="G78" s="19">
         <v>115</v>
       </c>
-      <c r="H78" s="21">
+      <c r="H78" s="19">
         <v>407</v>
       </c>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B79" s="23">
+      <c r="B79" s="21">
         <v>74</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="23" t="s">
+      <c r="C79" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="21">
         <v>90</v>
       </c>
-      <c r="F79" s="23">
-        <v>21</v>
-      </c>
-      <c r="G79" s="23">
+      <c r="F79" s="21">
+        <v>21</v>
+      </c>
+      <c r="G79" s="21">
         <v>17</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H79" s="21">
         <v>431</v>
       </c>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B80" s="21">
+      <c r="B80" s="19">
         <v>75</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="19">
         <v>420</v>
       </c>
-      <c r="F80" s="21">
-        <v>21</v>
-      </c>
-      <c r="G80" s="21">
+      <c r="F80" s="19">
+        <v>21</v>
+      </c>
+      <c r="G80" s="19">
         <v>115</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H80" s="19">
         <v>431</v>
       </c>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B81" s="23">
+      <c r="B81" s="21">
         <v>76</v>
       </c>
-      <c r="C81" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="23" t="s">
+      <c r="C81" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="21">
         <v>90</v>
       </c>
-      <c r="F81" s="23">
-        <v>21</v>
-      </c>
-      <c r="G81" s="23">
+      <c r="F81" s="21">
+        <v>21</v>
+      </c>
+      <c r="G81" s="21">
         <v>17</v>
       </c>
-      <c r="H81" s="23">
+      <c r="H81" s="21">
         <v>455</v>
       </c>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B82" s="21">
+      <c r="B82" s="19">
         <v>77</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="19">
         <v>420</v>
       </c>
-      <c r="F82" s="21">
-        <v>21</v>
-      </c>
-      <c r="G82" s="21">
+      <c r="F82" s="19">
+        <v>21</v>
+      </c>
+      <c r="G82" s="19">
         <v>115</v>
       </c>
-      <c r="H82" s="21">
+      <c r="H82" s="19">
         <v>455</v>
       </c>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B83" s="5">
@@ -16263,124 +16263,124 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B95" s="23">
+      <c r="B95" s="21">
         <v>90</v>
       </c>
-      <c r="C95" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="23" t="s">
+      <c r="C95" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="21">
         <v>61</v>
       </c>
-      <c r="F95" s="23">
-        <v>21</v>
-      </c>
-      <c r="G95" s="23">
+      <c r="F95" s="21">
+        <v>21</v>
+      </c>
+      <c r="G95" s="21">
         <v>17</v>
       </c>
-      <c r="H95" s="23">
+      <c r="H95" s="21">
         <v>603</v>
       </c>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B96" s="20">
+      <c r="B96" s="18">
         <v>91</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="18">
         <v>47</v>
       </c>
-      <c r="F96" s="20">
-        <v>21</v>
-      </c>
-      <c r="G96" s="20">
+      <c r="F96" s="18">
+        <v>21</v>
+      </c>
+      <c r="G96" s="18">
         <v>83</v>
       </c>
-      <c r="H96" s="20">
+      <c r="H96" s="18">
         <v>603</v>
       </c>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B97" s="23">
+      <c r="B97" s="21">
         <v>92</v>
       </c>
-      <c r="C97" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="23" t="s">
+      <c r="C97" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E97" s="23">
+      <c r="E97" s="21">
         <v>84</v>
       </c>
-      <c r="F97" s="23">
-        <v>21</v>
-      </c>
-      <c r="G97" s="23">
+      <c r="F97" s="21">
+        <v>21</v>
+      </c>
+      <c r="G97" s="21">
         <v>134</v>
       </c>
-      <c r="H97" s="23">
+      <c r="H97" s="21">
         <v>603</v>
       </c>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B98" s="20">
+      <c r="B98" s="18">
         <v>93</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="18">
         <v>47</v>
       </c>
-      <c r="F98" s="20">
-        <v>21</v>
-      </c>
-      <c r="G98" s="20">
+      <c r="F98" s="18">
+        <v>21</v>
+      </c>
+      <c r="G98" s="18">
         <v>224</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="18">
         <v>603</v>
       </c>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B99" s="6">
@@ -17115,64 +17115,64 @@
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B123" s="23">
+      <c r="B123" s="21">
         <v>118</v>
       </c>
-      <c r="C123" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="23" t="s">
+      <c r="C123" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E123" s="23">
+      <c r="E123" s="21">
         <v>75</v>
       </c>
-      <c r="F123" s="23">
-        <v>21</v>
-      </c>
-      <c r="G123" s="23">
-        <v>587</v>
-      </c>
-      <c r="H123" s="23">
-        <v>204</v>
-      </c>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
-      <c r="M123" s="23"/>
-      <c r="N123" s="23"/>
-      <c r="O123" s="23"/>
+      <c r="F123" s="21">
+        <v>21</v>
+      </c>
+      <c r="G123" s="21">
+        <v>574</v>
+      </c>
+      <c r="H123" s="21">
+        <v>189</v>
+      </c>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B124" s="20">
+      <c r="B124" s="18">
         <v>119</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D124" s="20" t="s">
+      <c r="D124" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E124" s="20">
+      <c r="E124" s="18">
         <v>47</v>
       </c>
-      <c r="F124" s="20">
-        <v>21</v>
-      </c>
-      <c r="G124" s="20">
-        <v>665</v>
-      </c>
-      <c r="H124" s="20">
-        <v>204</v>
-      </c>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="20"/>
-      <c r="O124" s="20"/>
+      <c r="F124" s="18">
+        <v>21</v>
+      </c>
+      <c r="G124" s="18">
+        <v>654</v>
+      </c>
+      <c r="H124" s="18">
+        <v>189</v>
+      </c>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B125" s="7">
@@ -23247,64 +23247,64 @@
       </c>
     </row>
     <row r="327" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B327" s="23">
+      <c r="B327" s="21">
         <v>322</v>
       </c>
-      <c r="C327" s="23" t="s">
+      <c r="C327" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D327" s="23" t="s">
+      <c r="D327" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E327" s="23">
+      <c r="E327" s="21">
         <v>40</v>
       </c>
-      <c r="F327" s="23">
-        <v>21</v>
-      </c>
-      <c r="G327" s="23">
+      <c r="F327" s="21">
+        <v>21</v>
+      </c>
+      <c r="G327" s="21">
         <v>17</v>
       </c>
-      <c r="H327" s="23">
+      <c r="H327" s="21">
         <v>755</v>
       </c>
-      <c r="I327" s="23"/>
-      <c r="J327" s="23"/>
-      <c r="K327" s="23"/>
-      <c r="L327" s="23"/>
-      <c r="M327" s="23"/>
-      <c r="N327" s="23"/>
-      <c r="O327" s="23"/>
+      <c r="I327" s="21"/>
+      <c r="J327" s="21"/>
+      <c r="K327" s="21"/>
+      <c r="L327" s="21"/>
+      <c r="M327" s="21"/>
+      <c r="N327" s="21"/>
+      <c r="O327" s="21"/>
     </row>
     <row r="328" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B328" s="24">
+      <c r="B328" s="22">
         <v>323</v>
       </c>
-      <c r="C328" s="24" t="s">
+      <c r="C328" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D328" s="24" t="s">
+      <c r="D328" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="E328" s="24">
+      <c r="E328" s="22">
         <v>1295</v>
       </c>
-      <c r="F328" s="24">
+      <c r="F328" s="22">
         <v>95</v>
       </c>
-      <c r="G328" s="24">
+      <c r="G328" s="22">
         <v>17</v>
       </c>
-      <c r="H328" s="24">
+      <c r="H328" s="22">
         <v>777</v>
       </c>
-      <c r="I328" s="24"/>
-      <c r="J328" s="24"/>
-      <c r="K328" s="24"/>
-      <c r="L328" s="24"/>
-      <c r="M328" s="24"/>
-      <c r="N328" s="24"/>
-      <c r="O328" s="24"/>
+      <c r="I328" s="22"/>
+      <c r="J328" s="22"/>
+      <c r="K328" s="22"/>
+      <c r="L328" s="22"/>
+      <c r="M328" s="22"/>
+      <c r="N328" s="22"/>
+      <c r="O328" s="22"/>
     </row>
     <row r="329" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B329" s="8">

--- a/GUI設計.xlsx
+++ b/GUI設計.xlsx
@@ -37,9 +37,6 @@
     <t>登録</t>
   </si>
   <si>
-    <t>編集</t>
-  </si>
-  <si>
     <t>削除</t>
   </si>
   <si>
@@ -3079,6 +3076,13 @@
     <t>社交名</t>
     <rPh sb="0" eb="3">
       <t>シャコウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3469,6 +3473,99 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="28575"/>
+          <a:ext cx="10086975" cy="5077522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>173180</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="2228850"/>
+          <a:ext cx="10117280" cy="5067300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -3759,8 +3856,8 @@
   <dimension ref="A1:O323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117:H118"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3785,13 +3882,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -3800,10 +3897,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="28" t="s">
@@ -3815,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4" s="28" t="s">
@@ -3831,31 +3928,31 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -3863,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="20">
         <v>1349</v>
@@ -3889,10 +3986,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="17">
         <v>164</v>
@@ -3919,10 +4016,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>80</v>
@@ -3949,10 +4046,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>80</v>
@@ -3979,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
@@ -4009,10 +4106,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="E11" s="2">
         <v>80</v>
@@ -4039,10 +4136,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
         <v>80</v>
@@ -4069,10 +4166,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2">
         <v>80</v>
@@ -4099,10 +4196,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
         <v>80</v>
@@ -4129,10 +4226,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>80</v>
@@ -4159,10 +4256,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>80</v>
@@ -4189,10 +4286,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>11</v>
       </c>
       <c r="E17" s="21">
         <v>95</v>
@@ -4219,10 +4316,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="21">
         <v>95</v>
@@ -4249,10 +4346,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="21">
         <v>95</v>
@@ -4279,10 +4376,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="21">
         <v>95</v>
@@ -4309,10 +4406,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="21">
         <v>76</v>
@@ -4339,10 +4436,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="21">
         <v>76</v>
@@ -4369,10 +4466,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="21">
         <v>76</v>
@@ -4399,10 +4496,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="21">
         <v>76</v>
@@ -4429,10 +4526,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="21">
         <v>76</v>
@@ -4459,10 +4556,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="19">
         <v>399</v>
@@ -4489,10 +4586,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="19">
         <v>192</v>
@@ -4519,10 +4616,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="19">
         <v>76</v>
@@ -4549,10 +4646,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="19">
         <v>113</v>
@@ -4579,10 +4676,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="19">
         <v>113</v>
@@ -4609,10 +4706,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="21">
         <v>90</v>
@@ -4639,10 +4736,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="19">
         <v>215</v>
@@ -4669,10 +4766,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="19">
         <v>215</v>
@@ -4699,10 +4796,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="21">
         <v>90</v>
@@ -4729,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="21">
         <v>20</v>
@@ -4759,10 +4856,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="19">
         <v>190</v>
@@ -4789,10 +4886,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="21">
         <v>20</v>
@@ -4819,10 +4916,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="19">
         <v>190</v>
@@ -4849,10 +4946,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" s="21">
         <v>90</v>
@@ -4879,10 +4976,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="E40" s="18">
         <v>56</v>
@@ -4909,10 +5006,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="21">
         <v>90</v>
@@ -4939,10 +5036,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="18">
         <v>56</v>
@@ -4969,10 +5066,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="19">
         <v>35</v>
@@ -4999,10 +5096,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="21">
         <v>20</v>
@@ -5029,10 +5126,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" s="18">
         <v>45</v>
@@ -5059,10 +5156,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="21">
         <v>20</v>
@@ -5089,10 +5186,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="18">
         <v>45</v>
@@ -5119,10 +5216,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="21">
         <v>20</v>
@@ -5149,10 +5246,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" s="21">
         <v>70</v>
@@ -5179,10 +5276,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="21">
         <v>20</v>
@@ -5209,10 +5306,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="19">
         <v>35</v>
@@ -5239,10 +5336,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E52" s="21">
         <v>20</v>
@@ -5269,10 +5366,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" s="4">
         <v>249</v>
@@ -5288,10 +5385,10 @@
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L53" s="4">
         <v>98</v>
@@ -5318,10 +5415,10 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L54" s="4">
         <v>116</v>
@@ -5341,10 +5438,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E55" s="21">
         <v>90</v>
@@ -5371,10 +5468,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E56" s="19">
         <v>50</v>
@@ -5401,10 +5498,10 @@
         <v>52</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E57" s="21">
         <v>20</v>
@@ -5431,10 +5528,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" s="19">
         <v>50</v>
@@ -5461,10 +5558,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" s="21">
         <v>20</v>
@@ -5491,10 +5588,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E60" s="19">
         <v>50</v>
@@ -5521,10 +5618,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E61" s="21">
         <v>90</v>
@@ -5551,10 +5648,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" s="19">
         <v>419</v>
@@ -5581,10 +5678,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E63" s="21">
         <v>90</v>
@@ -5611,10 +5708,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E64" s="19">
         <v>35</v>
@@ -5641,10 +5738,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="21">
         <v>20</v>
@@ -5671,10 +5768,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E66" s="19">
         <v>40</v>
@@ -5701,10 +5798,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E67" s="21">
         <v>90</v>
@@ -5731,10 +5828,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E68" s="18">
         <v>112</v>
@@ -5761,10 +5858,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E69" s="21">
         <v>90</v>
@@ -5791,10 +5888,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="19">
         <v>342</v>
@@ -5821,10 +5918,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E71" s="21">
         <v>90</v>
@@ -5851,10 +5948,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E72" s="19">
         <v>342</v>
@@ -5881,10 +5978,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E73" s="21">
         <v>90</v>
@@ -5911,10 +6008,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74" s="19">
         <v>420</v>
@@ -5941,10 +6038,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75" s="21">
         <v>90</v>
@@ -5971,10 +6068,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" s="19">
         <v>420</v>
@@ -6001,10 +6098,10 @@
         <v>72</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E77" s="5">
         <v>515</v>
@@ -6020,10 +6117,10 @@
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L77" s="5">
         <v>70</v>
@@ -6050,10 +6147,10 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K78" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="L78" s="5">
         <v>211</v>
@@ -6080,10 +6177,10 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L79" s="5">
         <v>95</v>
@@ -6110,10 +6207,10 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L80" s="5">
         <v>70</v>
@@ -6140,10 +6237,10 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L81" s="5">
         <v>70</v>
@@ -6170,10 +6267,10 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L82" s="5">
         <v>211</v>
@@ -6200,10 +6297,10 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L83" s="5">
         <v>95</v>
@@ -6230,10 +6327,10 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L84" s="5">
         <v>70</v>
@@ -6260,10 +6357,10 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L85" s="5">
         <v>70</v>
@@ -6290,10 +6387,10 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L86" s="5">
         <v>70</v>
@@ -6320,10 +6417,10 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L87" s="5">
         <v>70</v>
@@ -6350,10 +6447,10 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L88" s="5">
         <v>105</v>
@@ -6373,10 +6470,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E89" s="21">
         <v>61</v>
@@ -6403,10 +6500,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E90" s="18">
         <v>47</v>
@@ -6433,10 +6530,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E91" s="21">
         <v>84</v>
@@ -6463,10 +6560,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E92" s="18">
         <v>47</v>
@@ -6493,10 +6590,10 @@
         <v>88</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E93" s="6">
         <v>536</v>
@@ -6512,10 +6609,10 @@
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L93" s="6">
         <v>64</v>
@@ -6542,10 +6639,10 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L94" s="6">
         <v>215</v>
@@ -6572,10 +6669,10 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L95" s="6">
         <v>215</v>
@@ -6602,10 +6699,10 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L96" s="6">
         <v>64</v>
@@ -6632,10 +6729,10 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L97" s="6">
         <v>20</v>
@@ -6662,10 +6759,10 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L98" s="6">
         <v>190</v>
@@ -6692,10 +6789,10 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L99" s="6">
         <v>20</v>
@@ -6722,10 +6819,10 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L100" s="6">
         <v>190</v>
@@ -6752,10 +6849,10 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L101" s="6">
         <v>64</v>
@@ -6782,10 +6879,10 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L102" s="6">
         <v>50</v>
@@ -6812,10 +6909,10 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L103" s="6">
         <v>25</v>
@@ -6842,10 +6939,10 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L104" s="6">
         <v>20</v>
@@ -6872,10 +6969,10 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L105" s="6">
         <v>38</v>
@@ -6902,10 +6999,10 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L106" s="6">
         <v>20</v>
@@ -6932,10 +7029,10 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L107" s="6">
         <v>38</v>
@@ -6962,10 +7059,10 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L108" s="6">
         <v>20</v>
@@ -6992,10 +7089,10 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L109" s="6">
         <v>50</v>
@@ -7022,10 +7119,10 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L110" s="6">
         <v>20</v>
@@ -7052,10 +7149,10 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L111" s="6">
         <v>32</v>
@@ -7082,10 +7179,10 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L112" s="6">
         <v>20</v>
@@ -7112,10 +7209,10 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L113" s="6">
         <v>64</v>
@@ -7142,10 +7239,10 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L114" s="6">
         <v>50</v>
@@ -7172,10 +7269,10 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L115" s="6">
         <v>90</v>
@@ -7202,10 +7299,10 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L116" s="6">
         <v>86</v>
@@ -7225,10 +7322,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D117" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="E117" s="21">
         <v>75</v>
@@ -7255,10 +7352,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E118" s="18">
         <v>47</v>
@@ -7285,10 +7382,10 @@
         <v>114</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E119" s="7">
         <v>739</v>
@@ -7304,10 +7401,10 @@
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L119" s="7">
         <v>64</v>
@@ -7334,10 +7431,10 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L120" s="7">
         <v>215</v>
@@ -7364,10 +7461,10 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L121" s="7">
         <v>215</v>
@@ -7394,10 +7491,10 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L122" s="7">
         <v>93</v>
@@ -7424,10 +7521,10 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L123" s="7">
         <v>50</v>
@@ -7454,10 +7551,10 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L124" s="7">
         <v>64</v>
@@ -7484,10 +7581,10 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L125" s="7">
         <v>20</v>
@@ -7514,10 +7611,10 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L126" s="7">
         <v>190</v>
@@ -7544,10 +7641,10 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L127" s="7">
         <v>20</v>
@@ -7574,10 +7671,10 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L128" s="7">
         <v>190</v>
@@ -7604,10 +7701,10 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L129" s="7">
         <v>93</v>
@@ -7634,10 +7731,10 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L130" s="7">
         <v>50</v>
@@ -7664,10 +7761,10 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L131" s="7">
         <v>64</v>
@@ -7694,10 +7791,10 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L132" s="7">
         <v>50</v>
@@ -7724,10 +7821,10 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L133" s="7">
         <v>25</v>
@@ -7754,10 +7851,10 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L134" s="7">
         <v>20</v>
@@ -7784,10 +7881,10 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L135" s="7">
         <v>38</v>
@@ -7814,10 +7911,10 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L136" s="7">
         <v>20</v>
@@ -7844,10 +7941,10 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L137" s="7">
         <v>38</v>
@@ -7874,10 +7971,10 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L138" s="7">
         <v>20</v>
@@ -7904,10 +8001,10 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L139" s="7">
         <v>70</v>
@@ -7934,10 +8031,10 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L140" s="7">
         <v>20</v>
@@ -7964,10 +8061,10 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L141" s="7">
         <v>32</v>
@@ -7994,10 +8091,10 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L142" s="7">
         <v>20</v>
@@ -8024,10 +8121,10 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L143" s="7">
         <v>93</v>
@@ -8054,10 +8151,10 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L144" s="7">
         <v>94</v>
@@ -8084,10 +8181,10 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L145" s="7">
         <v>64</v>
@@ -8114,10 +8211,10 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L146" s="7">
         <v>215</v>
@@ -8144,10 +8241,10 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L147" s="7">
         <v>215</v>
@@ -8174,10 +8271,10 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L148" s="7">
         <v>93</v>
@@ -8204,10 +8301,10 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L149" s="7">
         <v>50</v>
@@ -8234,10 +8331,10 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L150" s="7">
         <v>64</v>
@@ -8264,10 +8361,10 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L151" s="7">
         <v>20</v>
@@ -8294,10 +8391,10 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L152" s="7">
         <v>190</v>
@@ -8324,10 +8421,10 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L153" s="7">
         <v>20</v>
@@ -8354,10 +8451,10 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L154" s="7">
         <v>190</v>
@@ -8384,10 +8481,10 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L155" s="7">
         <v>93</v>
@@ -8414,10 +8511,10 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L156" s="7">
         <v>50</v>
@@ -8444,10 +8541,10 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L157" s="7">
         <v>64</v>
@@ -8474,10 +8571,10 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L158" s="7">
         <v>50</v>
@@ -8504,10 +8601,10 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L159" s="7">
         <v>25</v>
@@ -8534,10 +8631,10 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L160" s="7">
         <v>20</v>
@@ -8564,10 +8661,10 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L161" s="7">
         <v>38</v>
@@ -8594,10 +8691,10 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L162" s="7">
         <v>20</v>
@@ -8624,10 +8721,10 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L163" s="7">
         <v>38</v>
@@ -8654,10 +8751,10 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L164" s="7">
         <v>20</v>
@@ -8684,10 +8781,10 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L165" s="7">
         <v>70</v>
@@ -8714,10 +8811,10 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L166" s="7">
         <v>20</v>
@@ -8744,10 +8841,10 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L167" s="7">
         <v>32</v>
@@ -8774,10 +8871,10 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L168" s="7">
         <v>20</v>
@@ -8804,10 +8901,10 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L169" s="7">
         <v>93</v>
@@ -8834,10 +8931,10 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L170" s="7">
         <v>94</v>
@@ -8864,10 +8961,10 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K171" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L171" s="7">
         <v>64</v>
@@ -8894,10 +8991,10 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L172" s="7">
         <v>215</v>
@@ -8924,10 +9021,10 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L173" s="7">
         <v>215</v>
@@ -8954,10 +9051,10 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L174" s="7">
         <v>93</v>
@@ -8984,10 +9081,10 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L175" s="7">
         <v>50</v>
@@ -9014,10 +9111,10 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L176" s="7">
         <v>64</v>
@@ -9044,10 +9141,10 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L177" s="7">
         <v>20</v>
@@ -9074,10 +9171,10 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L178" s="7">
         <v>190</v>
@@ -9104,10 +9201,10 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L179" s="7">
         <v>20</v>
@@ -9134,10 +9231,10 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L180" s="7">
         <v>190</v>
@@ -9164,10 +9261,10 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L181" s="7">
         <v>93</v>
@@ -9194,10 +9291,10 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L182" s="7">
         <v>50</v>
@@ -9224,10 +9321,10 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L183" s="7">
         <v>64</v>
@@ -9254,10 +9351,10 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L184" s="7">
         <v>50</v>
@@ -9284,10 +9381,10 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L185" s="7">
         <v>25</v>
@@ -9314,10 +9411,10 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L186" s="7">
         <v>20</v>
@@ -9344,10 +9441,10 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L187" s="7">
         <v>38</v>
@@ -9374,10 +9471,10 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L188" s="7">
         <v>20</v>
@@ -9404,10 +9501,10 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L189" s="7">
         <v>38</v>
@@ -9434,10 +9531,10 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L190" s="7">
         <v>20</v>
@@ -9464,10 +9561,10 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L191" s="7">
         <v>70</v>
@@ -9494,10 +9591,10 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L192" s="7">
         <v>20</v>
@@ -9524,10 +9621,10 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L193" s="7">
         <v>32</v>
@@ -9554,10 +9651,10 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L194" s="7">
         <v>20</v>
@@ -9584,10 +9681,10 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L195" s="7">
         <v>93</v>
@@ -9614,10 +9711,10 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L196" s="7">
         <v>94</v>
@@ -9644,10 +9741,10 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L197" s="7">
         <v>64</v>
@@ -9674,10 +9771,10 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L198" s="7">
         <v>215</v>
@@ -9704,10 +9801,10 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L199" s="7">
         <v>215</v>
@@ -9734,10 +9831,10 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L200" s="7">
         <v>93</v>
@@ -9764,10 +9861,10 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L201" s="7">
         <v>50</v>
@@ -9794,10 +9891,10 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L202" s="7">
         <v>64</v>
@@ -9824,10 +9921,10 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K203" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L203" s="7">
         <v>20</v>
@@ -9854,10 +9951,10 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L204" s="7">
         <v>190</v>
@@ -9884,10 +9981,10 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L205" s="7">
         <v>20</v>
@@ -9914,10 +10011,10 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L206" s="7">
         <v>190</v>
@@ -9944,10 +10041,10 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L207" s="7">
         <v>93</v>
@@ -9974,10 +10071,10 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L208" s="7">
         <v>50</v>
@@ -10004,10 +10101,10 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L209" s="7">
         <v>64</v>
@@ -10034,10 +10131,10 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L210" s="7">
         <v>50</v>
@@ -10064,10 +10161,10 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L211" s="7">
         <v>25</v>
@@ -10094,10 +10191,10 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L212" s="7">
         <v>20</v>
@@ -10124,10 +10221,10 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L213" s="7">
         <v>38</v>
@@ -10154,10 +10251,10 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K214" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L214" s="7">
         <v>20</v>
@@ -10184,10 +10281,10 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L215" s="7">
         <v>38</v>
@@ -10214,10 +10311,10 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L216" s="7">
         <v>20</v>
@@ -10244,10 +10341,10 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L217" s="7">
         <v>70</v>
@@ -10274,10 +10371,10 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L218" s="7">
         <v>20</v>
@@ -10304,10 +10401,10 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L219" s="7">
         <v>32</v>
@@ -10334,10 +10431,10 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L220" s="7">
         <v>20</v>
@@ -10364,10 +10461,10 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L221" s="7">
         <v>93</v>
@@ -10394,10 +10491,10 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L222" s="7">
         <v>94</v>
@@ -10424,10 +10521,10 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L223" s="7">
         <v>64</v>
@@ -10454,10 +10551,10 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L224" s="7">
         <v>215</v>
@@ -10484,10 +10581,10 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L225" s="7">
         <v>215</v>
@@ -10514,10 +10611,10 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L226" s="7">
         <v>93</v>
@@ -10544,10 +10641,10 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L227" s="7">
         <v>50</v>
@@ -10574,10 +10671,10 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K228" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L228" s="7">
         <v>64</v>
@@ -10604,10 +10701,10 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L229" s="7">
         <v>20</v>
@@ -10634,10 +10731,10 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L230" s="7">
         <v>190</v>
@@ -10664,10 +10761,10 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L231" s="7">
         <v>20</v>
@@ -10694,10 +10791,10 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L232" s="7">
         <v>190</v>
@@ -10724,10 +10821,10 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L233" s="7">
         <v>93</v>
@@ -10754,10 +10851,10 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L234" s="7">
         <v>50</v>
@@ -10784,10 +10881,10 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L235" s="7">
         <v>64</v>
@@ -10814,10 +10911,10 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L236" s="7">
         <v>50</v>
@@ -10844,10 +10941,10 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L237" s="7">
         <v>25</v>
@@ -10874,10 +10971,10 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K238" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L238" s="7">
         <v>20</v>
@@ -10904,10 +11001,10 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K239" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L239" s="7">
         <v>38</v>
@@ -10934,10 +11031,10 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L240" s="7">
         <v>20</v>
@@ -10964,10 +11061,10 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L241" s="7">
         <v>38</v>
@@ -10994,10 +11091,10 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K242" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L242" s="7">
         <v>20</v>
@@ -11024,10 +11121,10 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K243" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L243" s="7">
         <v>70</v>
@@ -11054,10 +11151,10 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K244" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L244" s="7">
         <v>20</v>
@@ -11084,10 +11181,10 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K245" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L245" s="7">
         <v>32</v>
@@ -11114,10 +11211,10 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K246" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L246" s="7">
         <v>20</v>
@@ -11144,10 +11241,10 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K247" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L247" s="7">
         <v>93</v>
@@ -11174,10 +11271,10 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L248" s="7">
         <v>94</v>
@@ -11204,10 +11301,10 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K249" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L249" s="7">
         <v>64</v>
@@ -11234,10 +11331,10 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K250" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L250" s="7">
         <v>215</v>
@@ -11264,10 +11361,10 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L251" s="7">
         <v>215</v>
@@ -11294,10 +11391,10 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K252" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L252" s="7">
         <v>93</v>
@@ -11324,10 +11421,10 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K253" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L253" s="7">
         <v>50</v>
@@ -11354,10 +11451,10 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K254" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L254" s="7">
         <v>64</v>
@@ -11384,10 +11481,10 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K255" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L255" s="7">
         <v>20</v>
@@ -11414,10 +11511,10 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K256" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L256" s="7">
         <v>190</v>
@@ -11444,10 +11541,10 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K257" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L257" s="7">
         <v>20</v>
@@ -11474,10 +11571,10 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K258" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L258" s="7">
         <v>190</v>
@@ -11504,10 +11601,10 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K259" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L259" s="7">
         <v>93</v>
@@ -11534,10 +11631,10 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K260" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L260" s="7">
         <v>50</v>
@@ -11564,10 +11661,10 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K261" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L261" s="7">
         <v>64</v>
@@ -11594,10 +11691,10 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K262" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L262" s="7">
         <v>50</v>
@@ -11624,10 +11721,10 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K263" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L263" s="7">
         <v>25</v>
@@ -11654,10 +11751,10 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L264" s="7">
         <v>20</v>
@@ -11684,10 +11781,10 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K265" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L265" s="7">
         <v>38</v>
@@ -11714,10 +11811,10 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K266" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L266" s="7">
         <v>20</v>
@@ -11744,10 +11841,10 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K267" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L267" s="7">
         <v>38</v>
@@ -11774,10 +11871,10 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K268" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L268" s="7">
         <v>20</v>
@@ -11804,10 +11901,10 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K269" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L269" s="7">
         <v>70</v>
@@ -11834,10 +11931,10 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K270" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L270" s="7">
         <v>20</v>
@@ -11864,10 +11961,10 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K271" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L271" s="7">
         <v>32</v>
@@ -11894,10 +11991,10 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K272" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L272" s="7">
         <v>20</v>
@@ -11924,10 +12021,10 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K273" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L273" s="7">
         <v>93</v>
@@ -11954,10 +12051,10 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K274" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L274" s="7">
         <v>94</v>
@@ -11984,10 +12081,10 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K275" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L275" s="7">
         <v>20</v>
@@ -12014,10 +12111,10 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K276" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L276" s="7">
         <v>190</v>
@@ -12044,10 +12141,10 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K277" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L277" s="7">
         <v>20</v>
@@ -12074,10 +12171,10 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K278" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L278" s="7">
         <v>190</v>
@@ -12104,10 +12201,10 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K279" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L279" s="7">
         <v>93</v>
@@ -12134,10 +12231,10 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K280" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L280" s="7">
         <v>50</v>
@@ -12164,10 +12261,10 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K281" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L281" s="7">
         <v>64</v>
@@ -12194,10 +12291,10 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K282" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L282" s="7">
         <v>50</v>
@@ -12224,10 +12321,10 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K283" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L283" s="7">
         <v>25</v>
@@ -12254,10 +12351,10 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K284" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L284" s="7">
         <v>20</v>
@@ -12284,10 +12381,10 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K285" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L285" s="7">
         <v>38</v>
@@ -12314,10 +12411,10 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K286" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L286" s="7">
         <v>20</v>
@@ -12344,10 +12441,10 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K287" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L287" s="7">
         <v>38</v>
@@ -12374,10 +12471,10 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K288" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L288" s="7">
         <v>20</v>
@@ -12404,10 +12501,10 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K289" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L289" s="7">
         <v>70</v>
@@ -12434,10 +12531,10 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K290" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L290" s="7">
         <v>20</v>
@@ -12464,10 +12561,10 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K291" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L291" s="7">
         <v>32</v>
@@ -12494,10 +12591,10 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K292" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L292" s="7">
         <v>20</v>
@@ -12524,10 +12621,10 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K293" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L293" s="7">
         <v>93</v>
@@ -12554,10 +12651,10 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K294" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L294" s="7">
         <v>94</v>
@@ -12584,10 +12681,10 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K295" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L295" s="7">
         <v>64</v>
@@ -12614,10 +12711,10 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K296" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L296" s="7">
         <v>215</v>
@@ -12644,10 +12741,10 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K297" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L297" s="7">
         <v>215</v>
@@ -12674,10 +12771,10 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K298" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L298" s="7">
         <v>93</v>
@@ -12704,10 +12801,10 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K299" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L299" s="7">
         <v>50</v>
@@ -12734,10 +12831,10 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K300" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L300" s="7">
         <v>64</v>
@@ -12764,10 +12861,10 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K301" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L301" s="7">
         <v>20</v>
@@ -12794,10 +12891,10 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K302" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L302" s="7">
         <v>190</v>
@@ -12824,10 +12921,10 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K303" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L303" s="7">
         <v>20</v>
@@ -12854,10 +12951,10 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K304" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L304" s="7">
         <v>190</v>
@@ -12884,10 +12981,10 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K305" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L305" s="7">
         <v>93</v>
@@ -12914,10 +13011,10 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K306" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L306" s="7">
         <v>50</v>
@@ -12944,10 +13041,10 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K307" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L307" s="7">
         <v>64</v>
@@ -12974,10 +13071,10 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K308" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L308" s="7">
         <v>50</v>
@@ -13004,10 +13101,10 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K309" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L309" s="7">
         <v>25</v>
@@ -13034,10 +13131,10 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K310" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L310" s="7">
         <v>20</v>
@@ -13064,10 +13161,10 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K311" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L311" s="7">
         <v>38</v>
@@ -13094,10 +13191,10 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K312" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L312" s="7">
         <v>20</v>
@@ -13124,10 +13221,10 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K313" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L313" s="7">
         <v>38</v>
@@ -13154,10 +13251,10 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K314" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L314" s="7">
         <v>20</v>
@@ -13184,10 +13281,10 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K315" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L315" s="7">
         <v>70</v>
@@ -13214,10 +13311,10 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K316" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L316" s="7">
         <v>20</v>
@@ -13244,10 +13341,10 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K317" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L317" s="7">
         <v>32</v>
@@ -13274,10 +13371,10 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K318" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L318" s="7">
         <v>20</v>
@@ -13304,10 +13401,10 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K319" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L319" s="7">
         <v>93</v>
@@ -13334,10 +13431,10 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K320" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L320" s="7">
         <v>94</v>
@@ -13357,10 +13454,10 @@
         <v>316</v>
       </c>
       <c r="C321" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D321" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="D321" s="21" t="s">
-        <v>315</v>
       </c>
       <c r="E321" s="21">
         <v>40</v>
@@ -13387,10 +13484,10 @@
         <v>317</v>
       </c>
       <c r="C322" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D322" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="D322" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="E322" s="22">
         <v>1295</v>
@@ -13417,10 +13514,10 @@
         <v>318</v>
       </c>
       <c r="C323" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D323" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="D323" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="E323" s="8">
         <v>1295</v>
@@ -13436,10 +13533,10 @@
       </c>
       <c r="I323" s="8"/>
       <c r="J323" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K323" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L323" s="8">
         <v>1280</v>
@@ -13473,8 +13570,8 @@
   <dimension ref="A1:O329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J123" sqref="J123"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13499,13 +13596,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -13514,10 +13611,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="30" t="s">
@@ -13529,10 +13626,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="31"/>
       <c r="N4" s="30" t="s">
@@ -13545,31 +13642,31 @@
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -13577,10 +13674,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E6" s="20">
         <v>1349</v>
@@ -13603,10 +13700,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="17">
         <v>164</v>
@@ -13633,10 +13730,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>80</v>
@@ -13663,10 +13760,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>80</v>
@@ -13693,10 +13790,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10" s="2">
         <v>116</v>
@@ -13723,10 +13820,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="E11" s="2">
         <v>80</v>
@@ -13753,10 +13850,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
         <v>80</v>
@@ -13783,10 +13880,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2">
         <v>80</v>
@@ -13813,10 +13910,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
         <v>80</v>
@@ -13843,10 +13940,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>80</v>
@@ -13873,10 +13970,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>80</v>
@@ -13903,10 +14000,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>11</v>
       </c>
       <c r="E17" s="21">
         <v>95</v>
@@ -13933,10 +14030,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="21">
         <v>95</v>
@@ -13963,10 +14060,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="21">
         <v>95</v>
@@ -13993,10 +14090,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="21">
         <v>95</v>
@@ -14023,10 +14120,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="21">
         <v>76</v>
@@ -14053,10 +14150,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="21">
         <v>76</v>
@@ -14083,10 +14180,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E23" s="21">
         <v>76</v>
@@ -14113,10 +14210,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="21">
         <v>76</v>
@@ -14143,10 +14240,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="21">
         <v>76</v>
@@ -14173,10 +14270,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="19">
         <v>399</v>
@@ -14203,10 +14300,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="19">
         <v>192</v>
@@ -14233,10 +14330,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E28" s="19">
         <v>76</v>
@@ -14263,10 +14360,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="19">
         <v>113</v>
@@ -14293,10 +14390,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="19">
         <v>113</v>
@@ -14323,10 +14420,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="21">
         <v>90</v>
@@ -14353,10 +14450,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="19">
         <v>215</v>
@@ -14383,10 +14480,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="19">
         <v>215</v>
@@ -14413,10 +14510,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E34" s="21">
         <v>75</v>
@@ -14443,10 +14540,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E35" s="21">
         <v>90</v>
@@ -14473,10 +14570,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E36" s="19">
         <v>255</v>
@@ -14503,10 +14600,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="21">
         <v>90</v>
@@ -14533,10 +14630,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="21">
         <v>20</v>
@@ -14563,10 +14660,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="19">
         <v>190</v>
@@ -14593,10 +14690,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="21">
         <v>20</v>
@@ -14623,10 +14720,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="19">
         <v>190</v>
@@ -14653,10 +14750,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E42" s="19">
         <v>75</v>
@@ -14683,10 +14780,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E43" s="21">
         <v>90</v>
@@ -14713,10 +14810,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E44" s="19">
         <v>255</v>
@@ -14743,10 +14840,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45" s="21">
         <v>90</v>
@@ -14773,10 +14870,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="E46" s="18">
         <v>56</v>
@@ -14803,10 +14900,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="21">
         <v>90</v>
@@ -14833,10 +14930,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="18">
         <v>56</v>
@@ -14863,10 +14960,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="19">
         <v>35</v>
@@ -14893,10 +14990,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" s="21">
         <v>20</v>
@@ -14923,10 +15020,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51" s="18">
         <v>45</v>
@@ -14953,10 +15050,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52" s="21">
         <v>20</v>
@@ -14983,10 +15080,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53" s="18">
         <v>45</v>
@@ -15013,10 +15110,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" s="21">
         <v>20</v>
@@ -15043,10 +15140,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="21">
         <v>70</v>
@@ -15073,10 +15170,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" s="21">
         <v>20</v>
@@ -15103,10 +15200,10 @@
         <v>52</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="19">
         <v>35</v>
@@ -15133,10 +15230,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E58" s="21">
         <v>20</v>
@@ -15163,10 +15260,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E59" s="4">
         <v>249</v>
@@ -15182,10 +15279,10 @@
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L59" s="4">
         <v>98</v>
@@ -15212,10 +15309,10 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L60" s="4">
         <v>116</v>
@@ -15235,10 +15332,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E61" s="21">
         <v>90</v>
@@ -15265,10 +15362,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" s="19">
         <v>50</v>
@@ -15295,10 +15392,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E63" s="21">
         <v>20</v>
@@ -15325,10 +15422,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E64" s="19">
         <v>50</v>
@@ -15355,10 +15452,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E65" s="21">
         <v>20</v>
@@ -15385,10 +15482,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E66" s="19">
         <v>50</v>
@@ -15415,10 +15512,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="21">
         <v>90</v>
@@ -15445,10 +15542,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="19">
         <v>419</v>
@@ -15475,10 +15572,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E69" s="21">
         <v>90</v>
@@ -15505,10 +15602,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E70" s="19">
         <v>35</v>
@@ -15535,10 +15632,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E71" s="21">
         <v>20</v>
@@ -15565,10 +15662,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E72" s="19">
         <v>40</v>
@@ -15595,10 +15692,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E73" s="21">
         <v>90</v>
@@ -15625,10 +15722,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E74" s="18">
         <v>112</v>
@@ -15655,10 +15752,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" s="21">
         <v>90</v>
@@ -15685,10 +15782,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E76" s="19">
         <v>342</v>
@@ -15715,10 +15812,10 @@
         <v>72</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E77" s="21">
         <v>90</v>
@@ -15745,10 +15842,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E78" s="19">
         <v>342</v>
@@ -15775,10 +15872,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E79" s="21">
         <v>90</v>
@@ -15805,10 +15902,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E80" s="19">
         <v>420</v>
@@ -15835,10 +15932,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E81" s="21">
         <v>90</v>
@@ -15865,10 +15962,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E82" s="19">
         <v>420</v>
@@ -15895,10 +15992,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E83" s="5">
         <v>515</v>
@@ -15914,10 +16011,10 @@
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L83" s="5">
         <v>70</v>
@@ -15944,10 +16041,10 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L84" s="5">
         <v>211</v>
@@ -15974,10 +16071,10 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L85" s="5">
         <v>95</v>
@@ -16004,10 +16101,10 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L86" s="5">
         <v>70</v>
@@ -16034,10 +16131,10 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L87" s="5">
         <v>70</v>
@@ -16064,10 +16161,10 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L88" s="5">
         <v>211</v>
@@ -16094,10 +16191,10 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L89" s="5">
         <v>95</v>
@@ -16124,10 +16221,10 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L90" s="5">
         <v>70</v>
@@ -16154,10 +16251,10 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L91" s="5">
         <v>70</v>
@@ -16184,10 +16281,10 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L92" s="5">
         <v>70</v>
@@ -16214,10 +16311,10 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L93" s="5">
         <v>70</v>
@@ -16244,10 +16341,10 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L94" s="5">
         <v>105</v>
@@ -16267,10 +16364,10 @@
         <v>90</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E95" s="21">
         <v>61</v>
@@ -16297,10 +16394,10 @@
         <v>91</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96" s="18">
         <v>47</v>
@@ -16327,10 +16424,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E97" s="21">
         <v>84</v>
@@ -16357,10 +16454,10 @@
         <v>93</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E98" s="18">
         <v>47</v>
@@ -16387,10 +16484,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99" s="6">
         <v>536</v>
@@ -16406,10 +16503,10 @@
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L99" s="6">
         <v>64</v>
@@ -16436,10 +16533,10 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L100" s="6">
         <v>215</v>
@@ -16466,10 +16563,10 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L101" s="6">
         <v>215</v>
@@ -16496,10 +16593,10 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L102" s="6">
         <v>64</v>
@@ -16526,10 +16623,10 @@
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L103" s="6">
         <v>20</v>
@@ -16556,10 +16653,10 @@
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L104" s="6">
         <v>190</v>
@@ -16586,10 +16683,10 @@
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L105" s="6">
         <v>20</v>
@@ -16616,10 +16713,10 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L106" s="6">
         <v>190</v>
@@ -16646,10 +16743,10 @@
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L107" s="6">
         <v>64</v>
@@ -16676,10 +16773,10 @@
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L108" s="6">
         <v>50</v>
@@ -16706,10 +16803,10 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L109" s="6">
         <v>25</v>
@@ -16736,10 +16833,10 @@
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L110" s="6">
         <v>20</v>
@@ -16766,10 +16863,10 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L111" s="6">
         <v>38</v>
@@ -16796,10 +16893,10 @@
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L112" s="6">
         <v>20</v>
@@ -16826,10 +16923,10 @@
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L113" s="6">
         <v>38</v>
@@ -16856,10 +16953,10 @@
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L114" s="6">
         <v>20</v>
@@ -16886,10 +16983,10 @@
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L115" s="6">
         <v>50</v>
@@ -16916,10 +17013,10 @@
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L116" s="6">
         <v>20</v>
@@ -16946,10 +17043,10 @@
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L117" s="6">
         <v>32</v>
@@ -16976,10 +17073,10 @@
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L118" s="6">
         <v>20</v>
@@ -17006,10 +17103,10 @@
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L119" s="6">
         <v>64</v>
@@ -17036,10 +17133,10 @@
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L120" s="6">
         <v>50</v>
@@ -17066,10 +17163,10 @@
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L121" s="6">
         <v>90</v>
@@ -17096,10 +17193,10 @@
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L122" s="6">
         <v>86</v>
@@ -17119,10 +17216,10 @@
         <v>118</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E123" s="21">
         <v>75</v>
@@ -17149,10 +17246,10 @@
         <v>119</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E124" s="18">
         <v>47</v>
@@ -17179,10 +17276,10 @@
         <v>120</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E125" s="7">
         <v>739</v>
@@ -17198,10 +17295,10 @@
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L125" s="7">
         <v>64</v>
@@ -17228,10 +17325,10 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L126" s="7">
         <v>215</v>
@@ -17258,10 +17355,10 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L127" s="7">
         <v>215</v>
@@ -17288,10 +17385,10 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L128" s="7">
         <v>93</v>
@@ -17318,10 +17415,10 @@
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L129" s="7">
         <v>50</v>
@@ -17348,10 +17445,10 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L130" s="7">
         <v>64</v>
@@ -17378,10 +17475,10 @@
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L131" s="7">
         <v>20</v>
@@ -17408,10 +17505,10 @@
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L132" s="7">
         <v>190</v>
@@ -17438,10 +17535,10 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L133" s="7">
         <v>20</v>
@@ -17468,10 +17565,10 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L134" s="7">
         <v>190</v>
@@ -17498,10 +17595,10 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L135" s="7">
         <v>93</v>
@@ -17528,10 +17625,10 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L136" s="7">
         <v>50</v>
@@ -17558,10 +17655,10 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L137" s="7">
         <v>64</v>
@@ -17588,10 +17685,10 @@
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L138" s="7">
         <v>50</v>
@@ -17618,10 +17715,10 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L139" s="7">
         <v>25</v>
@@ -17648,10 +17745,10 @@
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L140" s="7">
         <v>20</v>
@@ -17678,10 +17775,10 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L141" s="7">
         <v>38</v>
@@ -17708,10 +17805,10 @@
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L142" s="7">
         <v>20</v>
@@ -17738,10 +17835,10 @@
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L143" s="7">
         <v>38</v>
@@ -17768,10 +17865,10 @@
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L144" s="7">
         <v>20</v>
@@ -17798,10 +17895,10 @@
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L145" s="7">
         <v>70</v>
@@ -17828,10 +17925,10 @@
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L146" s="7">
         <v>20</v>
@@ -17858,10 +17955,10 @@
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L147" s="7">
         <v>32</v>
@@ -17888,10 +17985,10 @@
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L148" s="7">
         <v>20</v>
@@ -17918,10 +18015,10 @@
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L149" s="7">
         <v>93</v>
@@ -17948,10 +18045,10 @@
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L150" s="7">
         <v>94</v>
@@ -17978,10 +18075,10 @@
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L151" s="7">
         <v>64</v>
@@ -18008,10 +18105,10 @@
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L152" s="7">
         <v>215</v>
@@ -18038,10 +18135,10 @@
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L153" s="7">
         <v>215</v>
@@ -18068,10 +18165,10 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L154" s="7">
         <v>93</v>
@@ -18098,10 +18195,10 @@
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L155" s="7">
         <v>50</v>
@@ -18128,10 +18225,10 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L156" s="7">
         <v>64</v>
@@ -18158,10 +18255,10 @@
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L157" s="7">
         <v>20</v>
@@ -18188,10 +18285,10 @@
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L158" s="7">
         <v>190</v>
@@ -18218,10 +18315,10 @@
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L159" s="7">
         <v>20</v>
@@ -18248,10 +18345,10 @@
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L160" s="7">
         <v>190</v>
@@ -18278,10 +18375,10 @@
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L161" s="7">
         <v>93</v>
@@ -18308,10 +18405,10 @@
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L162" s="7">
         <v>50</v>
@@ -18338,10 +18435,10 @@
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L163" s="7">
         <v>64</v>
@@ -18368,10 +18465,10 @@
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L164" s="7">
         <v>50</v>
@@ -18398,10 +18495,10 @@
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L165" s="7">
         <v>25</v>
@@ -18428,10 +18525,10 @@
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L166" s="7">
         <v>20</v>
@@ -18458,10 +18555,10 @@
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L167" s="7">
         <v>38</v>
@@ -18488,10 +18585,10 @@
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L168" s="7">
         <v>20</v>
@@ -18518,10 +18615,10 @@
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L169" s="7">
         <v>38</v>
@@ -18548,10 +18645,10 @@
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L170" s="7">
         <v>20</v>
@@ -18578,10 +18675,10 @@
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K171" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L171" s="7">
         <v>70</v>
@@ -18608,10 +18705,10 @@
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L172" s="7">
         <v>20</v>
@@ -18638,10 +18735,10 @@
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L173" s="7">
         <v>32</v>
@@ -18668,10 +18765,10 @@
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L174" s="7">
         <v>20</v>
@@ -18698,10 +18795,10 @@
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L175" s="7">
         <v>93</v>
@@ -18728,10 +18825,10 @@
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L176" s="7">
         <v>94</v>
@@ -18758,10 +18855,10 @@
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L177" s="7">
         <v>64</v>
@@ -18788,10 +18885,10 @@
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L178" s="7">
         <v>215</v>
@@ -18818,10 +18915,10 @@
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L179" s="7">
         <v>215</v>
@@ -18848,10 +18945,10 @@
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L180" s="7">
         <v>93</v>
@@ -18878,10 +18975,10 @@
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L181" s="7">
         <v>50</v>
@@ -18908,10 +19005,10 @@
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L182" s="7">
         <v>64</v>
@@ -18938,10 +19035,10 @@
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L183" s="7">
         <v>20</v>
@@ -18968,10 +19065,10 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L184" s="7">
         <v>190</v>
@@ -18998,10 +19095,10 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L185" s="7">
         <v>20</v>
@@ -19028,10 +19125,10 @@
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L186" s="7">
         <v>190</v>
@@ -19058,10 +19155,10 @@
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L187" s="7">
         <v>93</v>
@@ -19088,10 +19185,10 @@
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L188" s="7">
         <v>50</v>
@@ -19118,10 +19215,10 @@
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L189" s="7">
         <v>64</v>
@@ -19148,10 +19245,10 @@
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L190" s="7">
         <v>50</v>
@@ -19178,10 +19275,10 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L191" s="7">
         <v>25</v>
@@ -19208,10 +19305,10 @@
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L192" s="7">
         <v>20</v>
@@ -19238,10 +19335,10 @@
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L193" s="7">
         <v>38</v>
@@ -19268,10 +19365,10 @@
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L194" s="7">
         <v>20</v>
@@ -19298,10 +19395,10 @@
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L195" s="7">
         <v>38</v>
@@ -19328,10 +19425,10 @@
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L196" s="7">
         <v>20</v>
@@ -19358,10 +19455,10 @@
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L197" s="7">
         <v>70</v>
@@ -19388,10 +19485,10 @@
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L198" s="7">
         <v>20</v>
@@ -19418,10 +19515,10 @@
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L199" s="7">
         <v>32</v>
@@ -19448,10 +19545,10 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L200" s="7">
         <v>20</v>
@@ -19478,10 +19575,10 @@
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L201" s="7">
         <v>93</v>
@@ -19508,10 +19605,10 @@
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L202" s="7">
         <v>94</v>
@@ -19538,10 +19635,10 @@
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K203" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L203" s="7">
         <v>64</v>
@@ -19568,10 +19665,10 @@
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L204" s="7">
         <v>215</v>
@@ -19598,10 +19695,10 @@
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L205" s="7">
         <v>215</v>
@@ -19628,10 +19725,10 @@
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L206" s="7">
         <v>93</v>
@@ -19658,10 +19755,10 @@
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L207" s="7">
         <v>50</v>
@@ -19688,10 +19785,10 @@
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L208" s="7">
         <v>64</v>
@@ -19718,10 +19815,10 @@
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
       <c r="J209" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L209" s="7">
         <v>20</v>
@@ -19748,10 +19845,10 @@
       <c r="H210" s="7"/>
       <c r="I210" s="7"/>
       <c r="J210" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L210" s="7">
         <v>190</v>
@@ -19778,10 +19875,10 @@
       <c r="H211" s="7"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L211" s="7">
         <v>20</v>
@@ -19808,10 +19905,10 @@
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L212" s="7">
         <v>190</v>
@@ -19838,10 +19935,10 @@
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
       <c r="J213" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L213" s="7">
         <v>93</v>
@@ -19868,10 +19965,10 @@
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K214" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L214" s="7">
         <v>50</v>
@@ -19898,10 +19995,10 @@
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L215" s="7">
         <v>64</v>
@@ -19928,10 +20025,10 @@
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L216" s="7">
         <v>50</v>
@@ -19958,10 +20055,10 @@
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L217" s="7">
         <v>25</v>
@@ -19988,10 +20085,10 @@
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
       <c r="J218" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L218" s="7">
         <v>20</v>
@@ -20018,10 +20115,10 @@
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
       <c r="J219" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L219" s="7">
         <v>38</v>
@@ -20048,10 +20145,10 @@
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
       <c r="J220" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L220" s="7">
         <v>20</v>
@@ -20078,10 +20175,10 @@
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
       <c r="J221" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L221" s="7">
         <v>38</v>
@@ -20108,10 +20205,10 @@
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L222" s="7">
         <v>20</v>
@@ -20138,10 +20235,10 @@
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
       <c r="J223" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L223" s="7">
         <v>70</v>
@@ -20168,10 +20265,10 @@
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
       <c r="J224" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L224" s="7">
         <v>20</v>
@@ -20198,10 +20295,10 @@
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
       <c r="J225" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L225" s="7">
         <v>32</v>
@@ -20228,10 +20325,10 @@
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L226" s="7">
         <v>20</v>
@@ -20258,10 +20355,10 @@
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L227" s="7">
         <v>93</v>
@@ -20288,10 +20385,10 @@
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K228" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L228" s="7">
         <v>94</v>
@@ -20318,10 +20415,10 @@
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L229" s="7">
         <v>64</v>
@@ -20348,10 +20445,10 @@
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
       <c r="J230" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L230" s="7">
         <v>215</v>
@@ -20378,10 +20475,10 @@
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
       <c r="J231" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L231" s="7">
         <v>215</v>
@@ -20408,10 +20505,10 @@
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
       <c r="J232" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L232" s="7">
         <v>93</v>
@@ -20438,10 +20535,10 @@
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
       <c r="J233" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L233" s="7">
         <v>50</v>
@@ -20468,10 +20565,10 @@
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L234" s="7">
         <v>64</v>
@@ -20498,10 +20595,10 @@
       <c r="H235" s="7"/>
       <c r="I235" s="7"/>
       <c r="J235" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L235" s="7">
         <v>20</v>
@@ -20528,10 +20625,10 @@
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L236" s="7">
         <v>190</v>
@@ -20558,10 +20655,10 @@
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
       <c r="J237" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L237" s="7">
         <v>20</v>
@@ -20588,10 +20685,10 @@
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
       <c r="J238" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K238" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L238" s="7">
         <v>190</v>
@@ -20618,10 +20715,10 @@
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
       <c r="J239" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K239" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L239" s="7">
         <v>93</v>
@@ -20648,10 +20745,10 @@
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
       <c r="J240" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L240" s="7">
         <v>50</v>
@@ -20678,10 +20775,10 @@
       <c r="H241" s="7"/>
       <c r="I241" s="7"/>
       <c r="J241" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L241" s="7">
         <v>64</v>
@@ -20708,10 +20805,10 @@
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
       <c r="J242" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K242" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L242" s="7">
         <v>50</v>
@@ -20738,10 +20835,10 @@
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
       <c r="J243" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K243" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L243" s="7">
         <v>25</v>
@@ -20768,10 +20865,10 @@
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
       <c r="J244" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K244" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L244" s="7">
         <v>20</v>
@@ -20798,10 +20895,10 @@
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
       <c r="J245" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K245" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L245" s="7">
         <v>38</v>
@@ -20828,10 +20925,10 @@
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
       <c r="J246" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K246" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L246" s="7">
         <v>20</v>
@@ -20858,10 +20955,10 @@
       <c r="H247" s="7"/>
       <c r="I247" s="7"/>
       <c r="J247" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K247" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L247" s="7">
         <v>38</v>
@@ -20888,10 +20985,10 @@
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
       <c r="J248" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L248" s="7">
         <v>20</v>
@@ -20918,10 +21015,10 @@
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
       <c r="J249" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K249" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L249" s="7">
         <v>70</v>
@@ -20948,10 +21045,10 @@
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
       <c r="J250" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K250" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L250" s="7">
         <v>20</v>
@@ -20978,10 +21075,10 @@
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
       <c r="J251" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L251" s="7">
         <v>32</v>
@@ -21008,10 +21105,10 @@
       <c r="H252" s="7"/>
       <c r="I252" s="7"/>
       <c r="J252" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K252" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L252" s="7">
         <v>20</v>
@@ -21038,10 +21135,10 @@
       <c r="H253" s="7"/>
       <c r="I253" s="7"/>
       <c r="J253" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K253" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L253" s="7">
         <v>93</v>
@@ -21068,10 +21165,10 @@
       <c r="H254" s="7"/>
       <c r="I254" s="7"/>
       <c r="J254" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K254" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L254" s="7">
         <v>94</v>
@@ -21098,10 +21195,10 @@
       <c r="H255" s="7"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K255" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L255" s="7">
         <v>64</v>
@@ -21128,10 +21225,10 @@
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K256" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L256" s="7">
         <v>215</v>
@@ -21158,10 +21255,10 @@
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
       <c r="J257" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K257" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L257" s="7">
         <v>215</v>
@@ -21188,10 +21285,10 @@
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
       <c r="J258" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K258" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L258" s="7">
         <v>93</v>
@@ -21218,10 +21315,10 @@
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
       <c r="J259" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K259" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L259" s="7">
         <v>50</v>
@@ -21248,10 +21345,10 @@
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
       <c r="J260" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K260" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L260" s="7">
         <v>64</v>
@@ -21278,10 +21375,10 @@
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K261" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L261" s="7">
         <v>20</v>
@@ -21308,10 +21405,10 @@
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
       <c r="J262" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K262" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L262" s="7">
         <v>190</v>
@@ -21338,10 +21435,10 @@
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
       <c r="J263" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K263" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L263" s="7">
         <v>20</v>
@@ -21368,10 +21465,10 @@
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L264" s="7">
         <v>190</v>
@@ -21398,10 +21495,10 @@
       <c r="H265" s="7"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K265" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L265" s="7">
         <v>93</v>
@@ -21428,10 +21525,10 @@
       <c r="H266" s="7"/>
       <c r="I266" s="7"/>
       <c r="J266" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K266" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L266" s="7">
         <v>50</v>
@@ -21458,10 +21555,10 @@
       <c r="H267" s="7"/>
       <c r="I267" s="7"/>
       <c r="J267" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K267" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L267" s="7">
         <v>64</v>
@@ -21488,10 +21585,10 @@
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
       <c r="J268" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K268" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L268" s="7">
         <v>50</v>
@@ -21518,10 +21615,10 @@
       <c r="H269" s="7"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K269" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L269" s="7">
         <v>25</v>
@@ -21548,10 +21645,10 @@
       <c r="H270" s="7"/>
       <c r="I270" s="7"/>
       <c r="J270" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K270" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L270" s="7">
         <v>20</v>
@@ -21578,10 +21675,10 @@
       <c r="H271" s="7"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K271" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L271" s="7">
         <v>38</v>
@@ -21608,10 +21705,10 @@
       <c r="H272" s="7"/>
       <c r="I272" s="7"/>
       <c r="J272" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K272" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L272" s="7">
         <v>20</v>
@@ -21638,10 +21735,10 @@
       <c r="H273" s="7"/>
       <c r="I273" s="7"/>
       <c r="J273" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K273" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L273" s="7">
         <v>38</v>
@@ -21668,10 +21765,10 @@
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
       <c r="J274" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K274" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L274" s="7">
         <v>20</v>
@@ -21698,10 +21795,10 @@
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
       <c r="J275" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K275" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L275" s="7">
         <v>70</v>
@@ -21728,10 +21825,10 @@
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
       <c r="J276" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K276" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L276" s="7">
         <v>20</v>
@@ -21758,10 +21855,10 @@
       <c r="H277" s="7"/>
       <c r="I277" s="7"/>
       <c r="J277" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K277" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L277" s="7">
         <v>32</v>
@@ -21788,10 +21885,10 @@
       <c r="H278" s="7"/>
       <c r="I278" s="7"/>
       <c r="J278" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K278" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L278" s="7">
         <v>20</v>
@@ -21818,10 +21915,10 @@
       <c r="H279" s="7"/>
       <c r="I279" s="7"/>
       <c r="J279" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K279" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L279" s="7">
         <v>93</v>
@@ -21848,10 +21945,10 @@
       <c r="H280" s="7"/>
       <c r="I280" s="7"/>
       <c r="J280" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K280" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L280" s="7">
         <v>94</v>
@@ -21878,10 +21975,10 @@
       <c r="H281" s="7"/>
       <c r="I281" s="7"/>
       <c r="J281" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K281" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L281" s="7">
         <v>20</v>
@@ -21908,10 +22005,10 @@
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
       <c r="J282" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K282" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L282" s="7">
         <v>190</v>
@@ -21938,10 +22035,10 @@
       <c r="H283" s="7"/>
       <c r="I283" s="7"/>
       <c r="J283" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K283" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L283" s="7">
         <v>20</v>
@@ -21968,10 +22065,10 @@
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
       <c r="J284" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K284" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L284" s="7">
         <v>190</v>
@@ -21998,10 +22095,10 @@
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
       <c r="J285" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K285" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L285" s="7">
         <v>93</v>
@@ -22028,10 +22125,10 @@
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
       <c r="J286" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K286" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L286" s="7">
         <v>50</v>
@@ -22058,10 +22155,10 @@
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
       <c r="J287" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K287" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L287" s="7">
         <v>64</v>
@@ -22088,10 +22185,10 @@
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
       <c r="J288" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K288" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L288" s="7">
         <v>50</v>
@@ -22118,10 +22215,10 @@
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
       <c r="J289" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K289" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L289" s="7">
         <v>25</v>
@@ -22148,10 +22245,10 @@
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
       <c r="J290" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K290" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L290" s="7">
         <v>20</v>
@@ -22178,10 +22275,10 @@
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
       <c r="J291" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K291" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L291" s="7">
         <v>38</v>
@@ -22208,10 +22305,10 @@
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
       <c r="J292" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K292" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L292" s="7">
         <v>20</v>
@@ -22238,10 +22335,10 @@
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
       <c r="J293" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K293" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L293" s="7">
         <v>38</v>
@@ -22268,10 +22365,10 @@
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
       <c r="J294" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K294" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L294" s="7">
         <v>20</v>
@@ -22298,10 +22395,10 @@
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
       <c r="J295" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K295" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L295" s="7">
         <v>70</v>
@@ -22328,10 +22425,10 @@
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
       <c r="J296" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K296" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L296" s="7">
         <v>20</v>
@@ -22358,10 +22455,10 @@
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
       <c r="J297" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K297" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L297" s="7">
         <v>32</v>
@@ -22388,10 +22485,10 @@
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
       <c r="J298" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K298" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L298" s="7">
         <v>20</v>
@@ -22418,10 +22515,10 @@
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
       <c r="J299" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K299" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L299" s="7">
         <v>93</v>
@@ -22448,10 +22545,10 @@
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
       <c r="J300" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K300" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L300" s="7">
         <v>94</v>
@@ -22478,10 +22575,10 @@
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
       <c r="J301" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K301" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L301" s="7">
         <v>64</v>
@@ -22508,10 +22605,10 @@
       <c r="H302" s="7"/>
       <c r="I302" s="7"/>
       <c r="J302" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K302" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L302" s="7">
         <v>215</v>
@@ -22538,10 +22635,10 @@
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
       <c r="J303" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K303" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L303" s="7">
         <v>215</v>
@@ -22568,10 +22665,10 @@
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
       <c r="J304" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K304" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L304" s="7">
         <v>93</v>
@@ -22598,10 +22695,10 @@
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
       <c r="J305" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K305" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L305" s="7">
         <v>50</v>
@@ -22628,10 +22725,10 @@
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
       <c r="J306" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K306" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L306" s="7">
         <v>64</v>
@@ -22658,10 +22755,10 @@
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
       <c r="J307" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K307" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L307" s="7">
         <v>20</v>
@@ -22688,10 +22785,10 @@
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
       <c r="J308" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K308" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L308" s="7">
         <v>190</v>
@@ -22718,10 +22815,10 @@
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
       <c r="J309" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K309" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L309" s="7">
         <v>20</v>
@@ -22748,10 +22845,10 @@
       <c r="H310" s="7"/>
       <c r="I310" s="7"/>
       <c r="J310" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K310" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L310" s="7">
         <v>190</v>
@@ -22778,10 +22875,10 @@
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
       <c r="J311" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K311" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L311" s="7">
         <v>93</v>
@@ -22808,10 +22905,10 @@
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
       <c r="J312" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K312" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L312" s="7">
         <v>50</v>
@@ -22838,10 +22935,10 @@
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
       <c r="J313" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K313" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L313" s="7">
         <v>64</v>
@@ -22868,10 +22965,10 @@
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
       <c r="J314" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K314" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L314" s="7">
         <v>50</v>
@@ -22898,10 +22995,10 @@
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
       <c r="J315" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K315" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L315" s="7">
         <v>25</v>
@@ -22928,10 +23025,10 @@
       <c r="H316" s="7"/>
       <c r="I316" s="7"/>
       <c r="J316" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K316" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L316" s="7">
         <v>20</v>
@@ -22958,10 +23055,10 @@
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
       <c r="J317" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K317" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L317" s="7">
         <v>38</v>
@@ -22988,10 +23085,10 @@
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
       <c r="J318" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K318" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L318" s="7">
         <v>20</v>
@@ -23018,10 +23115,10 @@
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
       <c r="J319" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K319" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L319" s="7">
         <v>38</v>
@@ -23048,10 +23145,10 @@
       <c r="H320" s="7"/>
       <c r="I320" s="7"/>
       <c r="J320" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K320" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L320" s="7">
         <v>20</v>
@@ -23078,10 +23175,10 @@
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
       <c r="J321" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K321" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L321" s="7">
         <v>70</v>
@@ -23108,10 +23205,10 @@
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
       <c r="J322" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K322" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L322" s="7">
         <v>20</v>
@@ -23138,10 +23235,10 @@
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
       <c r="J323" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K323" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L323" s="7">
         <v>32</v>
@@ -23168,10 +23265,10 @@
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
       <c r="J324" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K324" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L324" s="7">
         <v>20</v>
@@ -23198,10 +23295,10 @@
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
       <c r="J325" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K325" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L325" s="7">
         <v>93</v>
@@ -23228,10 +23325,10 @@
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
       <c r="J326" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K326" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L326" s="7">
         <v>94</v>
@@ -23251,10 +23348,10 @@
         <v>322</v>
       </c>
       <c r="C327" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D327" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="D327" s="21" t="s">
-        <v>315</v>
       </c>
       <c r="E327" s="21">
         <v>40</v>
@@ -23281,10 +23378,10 @@
         <v>323</v>
       </c>
       <c r="C328" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D328" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="D328" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="E328" s="22">
         <v>1295</v>
@@ -23311,10 +23408,10 @@
         <v>324</v>
       </c>
       <c r="C329" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D329" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="D329" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="E329" s="8">
         <v>1295</v>
@@ -23330,10 +23427,10 @@
       </c>
       <c r="I329" s="8"/>
       <c r="J329" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K329" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L329" s="8">
         <v>1280</v>
@@ -23366,12 +23463,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
